--- a/data/raw/dr_db.xlsx
+++ b/data/raw/dr_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/Dose_Response/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C47F6B1-FAB5-3E45-BC8A-A588A15D9B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F473E-1A72-564F-AE2B-D2E553786EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>Unique ID for every subject in this database, no repeats allowed</t>
+  </si>
+  <si>
+    <t>Which studies are already in here?</t>
+  </si>
+  <si>
+    <t>Potatoes6122024.xlsx</t>
+  </si>
+  <si>
+    <t>3x13x3</t>
+  </si>
+  <si>
+    <t>3x12x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This study is excluded, this isn't DR testing, we won't use it</t>
   </si>
 </sst>
 </file>
@@ -389,29 +404,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -429,18 +453,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -502,22 +514,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -539,6 +535,9 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -548,6 +547,22 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
@@ -564,7 +579,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}" name="Table6" displayName="Table6" ref="A1:O550" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}" name="Table6" displayName="Table6" ref="A1:O550" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:O550" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -583,20 +598,20 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{582EA2A9-F3AA-5B47-8B74-131459BFDB28}" name="id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BAC3BE12-3BE6-7147-92CC-B7DCD6A13411}" name="species" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A48B430F-FE2B-3D44-BDF9-48176D78625A}" name="lesion_num" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{660567D3-6A96-BB49-B2E9-52FC89B174C2}" name="application_num" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{DC9320CE-6588-994D-9D35-7C3915AD0957}" name="voltage" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{7D42AC53-ABF2-414F-8993-AA4780F2B0EE}" name="pulse_seq" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{649DD3BD-064B-7842-8601-2160A152595A}" name="waveform" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{56F928AF-CB3C-E149-8BCB-A51BF644C943}" name="n_uni" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{ED7FD3EA-7EC8-C44E-B842-D41BC4E34E28}" name="n_bipolar" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{4C58E439-210E-624E-8CBA-1B8E3E20A8D0}" name="n_biphasic" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{33292D2D-93D1-0141-B0C4-17ADAC1EC6C4}" name="n_train_rep" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{06C7383A-C15D-0F42-B5DC-7D691A9E0CFD}" name="depth" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{132A6AB1-07EA-F44C-A2A9-8A6937FEFAA1}" name="diameter" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{0FF87492-98E8-9A4C-9C1E-E98D8E1095A4}" name="generator" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{582EA2A9-F3AA-5B47-8B74-131459BFDB28}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{BAC3BE12-3BE6-7147-92CC-B7DCD6A13411}" name="species" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A48B430F-FE2B-3D44-BDF9-48176D78625A}" name="lesion_num" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{660567D3-6A96-BB49-B2E9-52FC89B174C2}" name="application_num" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{DC9320CE-6588-994D-9D35-7C3915AD0957}" name="voltage" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7D42AC53-ABF2-414F-8993-AA4780F2B0EE}" name="pulse_seq" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{649DD3BD-064B-7842-8601-2160A152595A}" name="waveform" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{56F928AF-CB3C-E149-8BCB-A51BF644C943}" name="n_uni" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{ED7FD3EA-7EC8-C44E-B842-D41BC4E34E28}" name="n_bipolar" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{4C58E439-210E-624E-8CBA-1B8E3E20A8D0}" name="n_biphasic" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{33292D2D-93D1-0141-B0C4-17ADAC1EC6C4}" name="n_train_rep" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{06C7383A-C15D-0F42-B5DC-7D691A9E0CFD}" name="depth" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{132A6AB1-07EA-F44C-A2A9-8A6937FEFAA1}" name="diameter" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{0FF87492-98E8-9A4C-9C1E-E98D8E1095A4}" name="generator" dataDxfId="15"/>
     <tableColumn id="15" xr3:uid="{A18459C3-5D4F-CB4B-ACD6-1064E84E0396}" name="experiment_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -604,22 +619,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C29E30DD-FBFD-ED4C-AB59-BD9C1B2C8A3E}" name="Table5" displayName="Table5" ref="A1:O550" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C29E30DD-FBFD-ED4C-AB59-BD9C1B2C8A3E}" name="Table5" displayName="Table5" ref="A1:O550" totalsRowShown="0" headerRowDxfId="14">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{07AA4434-D3EA-904D-9B49-A29B767D968A}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{60A59FF1-F641-7B4C-84A1-9730C0401CE0}" name="species" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0020F4F1-3D27-004D-B06E-F766281016D4}" name="lesion_num" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{CAEFC5A6-354E-C247-8CCA-AE70E4009996}" name="application_num" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{BB712484-2619-5E46-9E06-15FAA0A58D62}" name="voltage" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{95534238-E903-0544-9199-5E0678FB44F8}" name="pulse_seq" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{3D36EE62-2338-2D42-90C1-FD561C8DA56B}" name="waveform" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{CF414030-D9BA-0543-9D59-E95A8B559EFD}" name="n_uni" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{0560D0A4-EEA2-DD46-B0D1-B0E8B1859464}" name="n_bipolar" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{5CAC8C10-A00F-C744-BBEE-A412EDC09017}" name="n_biphasic" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{E02A03D0-7553-764F-A1EC-C19531AD6694}" name="n_train_rep" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{BC82ECAB-E272-B945-B4F9-404923E69B2C}" name="depth" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{7BC62987-DBF6-8242-9A66-477FF420C321}" name="diameter" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{BA758137-F60F-984E-BB79-AE9C83BFE808}" name="generator" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{07AA4434-D3EA-904D-9B49-A29B767D968A}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{60A59FF1-F641-7B4C-84A1-9730C0401CE0}" name="species" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0020F4F1-3D27-004D-B06E-F766281016D4}" name="lesion_num" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CAEFC5A6-354E-C247-8CCA-AE70E4009996}" name="application_num" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BB712484-2619-5E46-9E06-15FAA0A58D62}" name="voltage" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{95534238-E903-0544-9199-5E0678FB44F8}" name="pulse_seq" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3D36EE62-2338-2D42-90C1-FD561C8DA56B}" name="waveform" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{CF414030-D9BA-0543-9D59-E95A8B559EFD}" name="n_uni" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{0560D0A4-EEA2-DD46-B0D1-B0E8B1859464}" name="n_bipolar" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{5CAC8C10-A00F-C744-BBEE-A412EDC09017}" name="n_biphasic" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E02A03D0-7553-764F-A1EC-C19531AD6694}" name="n_train_rep" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{BC82ECAB-E272-B945-B4F9-404923E69B2C}" name="depth" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{7BC62987-DBF6-8242-9A66-477FF420C321}" name="diameter" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{BA758137-F60F-984E-BB79-AE9C83BFE808}" name="generator" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{9B261674-7C1B-1B4B-A054-F208FE92BC4A}" name="experiment_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -973,413 +988,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56265552-5F8B-5640-AFF4-B9B334353120}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A24" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="14" customWidth="1"/>
-    <col min="2" max="5" width="10.83203125" style="14"/>
-    <col min="6" max="6" width="54.83203125" style="14" customWidth="1"/>
-    <col min="7" max="12" width="10.83203125" style="14"/>
-    <col min="13" max="13" width="15.6640625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="14.33203125" style="11" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" style="11"/>
+    <col min="6" max="6" width="54.83203125" style="11" customWidth="1"/>
+    <col min="7" max="12" width="10.83203125" style="11"/>
+    <col min="13" max="13" width="15.6640625" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="F4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="F5" s="14" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="F5" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="18"/>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="S35" s="18"/>
+      <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1392,6 +1440,11 @@
     <hyperlink ref="C17" r:id="rId2" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/ERNEFjEa4UBIkAv98X_pZtkB1bJ8H5BzMqWXd4eDSgSm4g?e=THlZAl" xr:uid="{A99D9EB4-D538-774E-9D27-09CBC7B7AFC8}"/>
     <hyperlink ref="C18" r:id="rId3" display="https://fieldmedical.sharepoint.com/:x:/r/sites/Clinical/Shared Documents/Pre-Clinical/Benchtop Testing/UnipolarPotatosPFA.xlsx?d=wd662eb4269174a7fa35bcc1580de9985&amp;csf=1&amp;web=1&amp;e=0zgffS" xr:uid="{E4A5CB50-E83B-0E42-B0AB-E56A5A99C354}"/>
     <hyperlink ref="C19" r:id="rId4" display="https://fieldmedical.sharepoint.com/:x:/r/sites/Clinical/Shared Documents/Pre-Clinical/Benchtop Testing/Unipolar-potatoes031524.xlsx?d=w3e3d9e29ce4e4100b3679220c3ea2f69&amp;csf=1&amp;web=1&amp;e=1vUZM8" xr:uid="{2CE9CBDE-046E-2243-81C3-29316091651F}"/>
+    <hyperlink ref="A44" r:id="rId5" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/ERuwyNr2W5REhjb_GoX9xqYB5rtP5g7KFKrbQkkz3k8coA?e=TGrSuq" xr:uid="{B2060935-3CA4-6742-B60C-8A84A4006FEF}"/>
+    <hyperlink ref="A45" r:id="rId6" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/ERNEFjEa4UBIkAv98X_pZtkB1bJ8H5BzMqWXd4eDSgSm4g?e=dQFSMW" xr:uid="{AA3BE572-CDA4-234C-B211-5A0407C6C19E}"/>
+    <hyperlink ref="A46" r:id="rId7" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/EULrYtYXaX9Ko1vMFYDemYUBTHMUr5r933GB3QPXS1uAQQ?e=LeJ9jm" xr:uid="{3AA702AA-FC97-6A4D-B588-4BFDBC3676DD}"/>
+    <hyperlink ref="A47" r:id="rId8" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/ESmePT5OzgBBs2eSIMPqL2kBjzTHwcXzE-HJD6lMbGlWPw?e=cTdXlF" xr:uid="{2611F497-A6DF-574C-986D-6BBEF2230740}"/>
+    <hyperlink ref="A48" r:id="rId9" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/EWJo2dOKUsFEqZp0BE2yh5oB0u1cBdYOLsm1hlDaM7W6wQ?e=cyp6ab" xr:uid="{5509B9D5-BD42-1C4E-BF9A-806DD1643B65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1399,18 +1452,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5BF2D-E5D2-C74E-BDAA-5F5BFA9E62BE}">
-  <dimension ref="A1:W165"/>
+  <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="16" customWidth="1"/>
     <col min="5" max="10" width="10.83203125" style="3"/>
     <col min="11" max="11" width="11.6640625" style="3" customWidth="1"/>
     <col min="12" max="14" width="10.83203125" style="3"/>
@@ -1418,7 +1471,7 @@
     <col min="18" max="18" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1464,12 +1517,10 @@
       <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1530,7 @@
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1512,12 +1563,9 @@
       <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1575,7 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1560,12 +1608,8 @@
       <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1575,7 +1619,7 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1608,12 +1652,8 @@
       <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1663,7 @@
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="15">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1657,7 +1697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1707,7 @@
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="15">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1701,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1711,7 +1751,7 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="15">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1745,7 +1785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1755,7 +1795,7 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="15">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1789,7 +1829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +1839,7 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="15">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1833,7 +1873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1843,7 +1883,7 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="15">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1877,7 +1917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +1927,7 @@
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1921,7 +1961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1931,7 +1971,7 @@
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1965,7 +2005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +2015,7 @@
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="15">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2009,7 +2049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2019,7 +2059,7 @@
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="15">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2053,7 +2093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2103,7 @@
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="15">
         <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2107,7 +2147,7 @@
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="15">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2151,7 +2191,7 @@
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="15">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2195,7 +2235,7 @@
       <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="15">
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -2239,7 +2279,7 @@
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="15">
         <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2283,7 +2323,7 @@
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="15">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -2327,7 +2367,7 @@
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="15">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -2371,7 +2411,7 @@
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="15">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -2415,7 +2455,7 @@
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="15">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2459,7 +2499,7 @@
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="15">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2503,7 +2543,7 @@
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="15">
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -2547,7 +2587,7 @@
       <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="15">
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2591,7 +2631,7 @@
       <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="15">
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2635,7 +2675,7 @@
       <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="15">
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2679,7 +2719,7 @@
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="15">
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2723,7 +2763,7 @@
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="15">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2767,7 +2807,7 @@
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="15">
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2811,7 +2851,7 @@
       <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2862,7 +2902,7 @@
       <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="15">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2913,7 +2953,7 @@
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="15">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2964,7 +3004,7 @@
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="15">
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3015,7 +3055,7 @@
       <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="15">
         <v>5</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -3048,7 +3088,7 @@
       <c r="O39" t="s">
         <v>31</v>
       </c>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -3066,7 +3106,7 @@
       <c r="C40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="15">
         <v>6</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -3099,7 +3139,7 @@
       <c r="O40" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" s="12"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -3117,7 +3157,7 @@
       <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="15">
         <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -3150,7 +3190,7 @@
       <c r="O41" t="s">
         <v>31</v>
       </c>
-      <c r="Q41" s="12"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -3168,7 +3208,7 @@
       <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="15">
         <v>8</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -3201,7 +3241,7 @@
       <c r="O42" t="s">
         <v>31</v>
       </c>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -3219,7 +3259,7 @@
       <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="15">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -3252,7 +3292,7 @@
       <c r="O43" t="s">
         <v>31</v>
       </c>
-      <c r="Q43" s="12"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -3270,7 +3310,7 @@
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="15">
         <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -3303,7 +3343,7 @@
       <c r="O44" t="s">
         <v>31</v>
       </c>
-      <c r="Q44" s="12"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -3312,7 +3352,7 @@
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="Q45" s="12"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -3330,7 +3370,7 @@
       <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="15">
         <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -3363,7 +3403,7 @@
       <c r="O46" t="s">
         <v>31</v>
       </c>
-      <c r="Q46" s="12"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -3381,7 +3421,7 @@
       <c r="C47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="15">
         <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -3414,7 +3454,7 @@
       <c r="O47" t="s">
         <v>31</v>
       </c>
-      <c r="Q47" s="12"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
@@ -3432,7 +3472,7 @@
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="15">
         <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -3476,7 +3516,7 @@
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="15">
         <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -3520,7 +3560,7 @@
       <c r="C50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="15">
         <v>5</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -3564,7 +3604,7 @@
       <c r="C51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="15">
         <v>6</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -3608,7 +3648,7 @@
       <c r="C52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="15">
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -3652,7 +3692,7 @@
       <c r="C53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="15">
         <v>8</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -3696,7 +3736,7 @@
       <c r="C54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="15">
         <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -3740,7 +3780,7 @@
       <c r="C55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="15">
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -3784,7 +3824,7 @@
       <c r="C57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="15">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -3828,7 +3868,7 @@
       <c r="C58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="15">
         <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -3872,7 +3912,7 @@
       <c r="C59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="15">
         <v>3</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -3916,7 +3956,7 @@
       <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="15">
         <v>4</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -3960,7 +4000,7 @@
       <c r="C61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="15">
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -4004,7 +4044,7 @@
       <c r="C62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="15">
         <v>6</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -4048,7 +4088,7 @@
       <c r="C63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="15">
         <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -4092,7 +4132,7 @@
       <c r="C64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="15">
         <v>8</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -4136,7 +4176,7 @@
       <c r="C65" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="15">
         <v>9</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -4180,7 +4220,7 @@
       <c r="C66" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="15">
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -4224,7 +4264,7 @@
       <c r="C68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="15">
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -4268,7 +4308,7 @@
       <c r="C69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="15">
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -4312,7 +4352,7 @@
       <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="15">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -4356,7 +4396,7 @@
       <c r="C71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="15">
         <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -4400,7 +4440,7 @@
       <c r="C72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="15">
         <v>5</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -4444,7 +4484,7 @@
       <c r="C73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="15">
         <v>6</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -4488,7 +4528,7 @@
       <c r="C74" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="15">
         <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -4532,7 +4572,7 @@
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="15">
         <v>8</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -4576,7 +4616,7 @@
       <c r="C76" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="15">
         <v>9</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -4620,7 +4660,7 @@
       <c r="C77" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="15">
         <v>10</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -4664,7 +4704,7 @@
       <c r="C79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="15">
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -4706,7 +4746,7 @@
       <c r="C80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="15">
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -4746,7 +4786,7 @@
       <c r="C81" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="15">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -4786,7 +4826,7 @@
       <c r="C82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="15">
         <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -4830,7 +4870,7 @@
       <c r="C83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="15">
         <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -4874,7 +4914,7 @@
       <c r="C84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="15">
         <v>6</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -4918,7 +4958,7 @@
       <c r="C85" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="15">
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -4962,7 +5002,7 @@
       <c r="C86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="15">
         <v>8</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -5006,7 +5046,7 @@
       <c r="C87" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="15">
         <v>9</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -5050,7 +5090,7 @@
       <c r="C88" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="15">
         <v>10</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -5094,7 +5134,7 @@
       <c r="C90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="15">
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -5136,7 +5176,7 @@
       <c r="C91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="15">
         <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -5176,7 +5216,7 @@
       <c r="C92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="15">
         <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -5216,7 +5256,7 @@
       <c r="C93" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="15">
         <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -5260,7 +5300,7 @@
       <c r="C94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="15">
         <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -5304,7 +5344,7 @@
       <c r="C95" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="15">
         <v>6</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -5348,7 +5388,7 @@
       <c r="C96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="15">
         <v>7</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -5392,7 +5432,7 @@
       <c r="C97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="15">
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -5436,7 +5476,7 @@
       <c r="C98" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="15">
         <v>9</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -5480,7 +5520,7 @@
       <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="15">
         <v>10</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -5524,7 +5564,7 @@
       <c r="C101" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="15">
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -5568,7 +5608,7 @@
       <c r="C102" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="15">
         <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -5612,7 +5652,7 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="15">
         <v>3</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -5656,7 +5696,7 @@
       <c r="C104" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="15">
         <v>4</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -5700,7 +5740,7 @@
       <c r="C105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="15">
         <v>5</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -5744,7 +5784,7 @@
       <c r="C106" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="15">
         <v>6</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -5788,7 +5828,7 @@
       <c r="C107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="15">
         <v>7</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -5832,7 +5872,7 @@
       <c r="C108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="15">
         <v>8</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -5876,7 +5916,7 @@
       <c r="C109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="15">
         <v>9</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -5920,7 +5960,7 @@
       <c r="C110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="15">
         <v>10</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -5964,7 +6004,7 @@
       <c r="C112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="15">
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -6008,7 +6048,7 @@
       <c r="C113" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="15">
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -6052,7 +6092,7 @@
       <c r="C114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="15">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -6096,7 +6136,7 @@
       <c r="C115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="15">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -6140,7 +6180,7 @@
       <c r="C116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="15">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -6184,7 +6224,7 @@
       <c r="C117" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="15">
         <v>6</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -6228,7 +6268,7 @@
       <c r="C118" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="15">
         <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -6272,7 +6312,7 @@
       <c r="C119" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="15">
         <v>8</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -6316,7 +6356,7 @@
       <c r="C120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="15">
         <v>9</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -6360,7 +6400,7 @@
       <c r="C121" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="15">
         <v>10</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -6404,7 +6444,7 @@
       <c r="C123" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="15">
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -6448,7 +6488,7 @@
       <c r="C124" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="15">
         <v>2</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -6492,7 +6532,7 @@
       <c r="C125" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="15">
         <v>3</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -6536,7 +6576,7 @@
       <c r="C126" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="15">
         <v>4</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -6580,7 +6620,7 @@
       <c r="C127" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="15">
         <v>5</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -6624,7 +6664,7 @@
       <c r="C128" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="15">
         <v>6</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -6668,7 +6708,7 @@
       <c r="C129" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="15">
         <v>7</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -6712,7 +6752,7 @@
       <c r="C130" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="15">
         <v>8</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -6756,7 +6796,7 @@
       <c r="C131" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="15">
         <v>9</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -6800,7 +6840,7 @@
       <c r="C132" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="15">
         <v>10</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -6844,7 +6884,7 @@
       <c r="C134" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="15">
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -6888,7 +6928,7 @@
       <c r="C135" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="15">
         <v>2</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -6932,7 +6972,7 @@
       <c r="C136" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="15">
         <v>3</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -6976,7 +7016,7 @@
       <c r="C137" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="15">
         <v>4</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -7020,7 +7060,7 @@
       <c r="C138" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="15">
         <v>5</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -7064,7 +7104,7 @@
       <c r="C139" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="15">
         <v>6</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -7108,7 +7148,7 @@
       <c r="C140" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="15">
         <v>7</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -7152,7 +7192,7 @@
       <c r="C141" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="15">
         <v>8</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -7196,7 +7236,7 @@
       <c r="C142" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="15">
         <v>9</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -7240,7 +7280,7 @@
       <c r="C143" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="15">
         <v>10</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -7284,7 +7324,7 @@
       <c r="C145" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="15">
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -7328,7 +7368,7 @@
       <c r="C146" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="15">
         <v>2</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -7372,7 +7412,7 @@
       <c r="C147" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="15">
         <v>3</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -7416,7 +7456,7 @@
       <c r="C148" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="15">
         <v>4</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -7460,7 +7500,7 @@
       <c r="C149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="15">
         <v>5</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -7504,7 +7544,7 @@
       <c r="C150" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="15">
         <v>6</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -7548,7 +7588,7 @@
       <c r="C151" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="15">
         <v>7</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -7592,7 +7632,7 @@
       <c r="C152" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="15">
         <v>8</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -7636,7 +7676,7 @@
       <c r="C153" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="15">
         <v>9</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -7680,7 +7720,7 @@
       <c r="C154" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="15">
         <v>10</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -7724,7 +7764,7 @@
       <c r="C156" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="15">
         <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -7768,7 +7808,7 @@
       <c r="C157" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="15">
         <v>2</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -7812,7 +7852,7 @@
       <c r="C158" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="15">
         <v>3</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -7856,7 +7896,7 @@
       <c r="C159" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="15">
         <v>4</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -7900,7 +7940,7 @@
       <c r="C160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="15">
         <v>5</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -7944,7 +7984,7 @@
       <c r="C161" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="15">
         <v>6</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -7988,7 +8028,7 @@
       <c r="C162" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="15">
         <v>7</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -8032,7 +8072,7 @@
       <c r="C163" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="15">
         <v>8</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -8076,7 +8116,7 @@
       <c r="C164" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="15">
         <v>9</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -8120,7 +8160,7 @@
       <c r="C165" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="15">
         <v>10</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -8153,6 +8193,17 @@
       <c r="O165" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D167"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D169"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D171"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -8263,10 +8314,10 @@
       <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q2" s="5" t="s">
@@ -8314,7 +8365,7 @@
   <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8365,6 +8416,14 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">

--- a/data/raw/dr_db.xlsx
+++ b/data/raw/dr_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/Dose_Response/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F473E-1A72-564F-AE2B-D2E553786EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA644BC-116D-F549-9142-A16A2AA73B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
+    <workbookView xWindow="2100" yWindow="760" windowWidth="32460" windowHeight="19880" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -290,9 +290,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>Unique ID for every subject in this database, no repeats allowed</t>
-  </si>
-  <si>
     <t>Which studies are already in here?</t>
   </si>
   <si>
@@ -307,12 +304,63 @@
   <si>
     <t xml:space="preserve"> This study is excluded, this isn't DR testing, we won't use it</t>
   </si>
+  <si>
+    <t>Initially we thought this represented unique potatoes. We learned it does not, so it currently means nothing at all.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>EB-3</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>3x12x3 potato tests_08_02_2024</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>POTATO TESTING AUGUST 2 2024-ryan</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,6 +415,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -395,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -415,18 +470,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -523,18 +599,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -608,10 +672,10 @@
     <tableColumn id="8" xr3:uid="{56F928AF-CB3C-E149-8BCB-A51BF644C943}" name="n_uni" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{ED7FD3EA-7EC8-C44E-B842-D41BC4E34E28}" name="n_bipolar" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{4C58E439-210E-624E-8CBA-1B8E3E20A8D0}" name="n_biphasic" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{33292D2D-93D1-0141-B0C4-17ADAC1EC6C4}" name="n_train_rep" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{06C7383A-C15D-0F42-B5DC-7D691A9E0CFD}" name="depth" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{132A6AB1-07EA-F44C-A2A9-8A6937FEFAA1}" name="diameter" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{0FF87492-98E8-9A4C-9C1E-E98D8E1095A4}" name="generator" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{33292D2D-93D1-0141-B0C4-17ADAC1EC6C4}" name="n_train_rep" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{06C7383A-C15D-0F42-B5DC-7D691A9E0CFD}" name="depth" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{132A6AB1-07EA-F44C-A2A9-8A6937FEFAA1}" name="diameter" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{0FF87492-98E8-9A4C-9C1E-E98D8E1095A4}" name="generator" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{A18459C3-5D4F-CB4B-ACD6-1064E84E0396}" name="experiment_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -619,22 +683,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C29E30DD-FBFD-ED4C-AB59-BD9C1B2C8A3E}" name="Table5" displayName="Table5" ref="A1:O550" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C29E30DD-FBFD-ED4C-AB59-BD9C1B2C8A3E}" name="Table5" displayName="Table5" ref="A1:O550" totalsRowShown="0" headerRowDxfId="18">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{07AA4434-D3EA-904D-9B49-A29B767D968A}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{60A59FF1-F641-7B4C-84A1-9730C0401CE0}" name="species" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0020F4F1-3D27-004D-B06E-F766281016D4}" name="lesion_num" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CAEFC5A6-354E-C247-8CCA-AE70E4009996}" name="application_num" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{BB712484-2619-5E46-9E06-15FAA0A58D62}" name="voltage" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{95534238-E903-0544-9199-5E0678FB44F8}" name="pulse_seq" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{3D36EE62-2338-2D42-90C1-FD561C8DA56B}" name="waveform" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{CF414030-D9BA-0543-9D59-E95A8B559EFD}" name="n_uni" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{0560D0A4-EEA2-DD46-B0D1-B0E8B1859464}" name="n_bipolar" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{5CAC8C10-A00F-C744-BBEE-A412EDC09017}" name="n_biphasic" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{E02A03D0-7553-764F-A1EC-C19531AD6694}" name="n_train_rep" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{BC82ECAB-E272-B945-B4F9-404923E69B2C}" name="depth" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7BC62987-DBF6-8242-9A66-477FF420C321}" name="diameter" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{BA758137-F60F-984E-BB79-AE9C83BFE808}" name="generator" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{07AA4434-D3EA-904D-9B49-A29B767D968A}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{60A59FF1-F641-7B4C-84A1-9730C0401CE0}" name="species" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0020F4F1-3D27-004D-B06E-F766281016D4}" name="lesion_num" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CAEFC5A6-354E-C247-8CCA-AE70E4009996}" name="application_num" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{BB712484-2619-5E46-9E06-15FAA0A58D62}" name="voltage" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{95534238-E903-0544-9199-5E0678FB44F8}" name="pulse_seq" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3D36EE62-2338-2D42-90C1-FD561C8DA56B}" name="waveform" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{CF414030-D9BA-0543-9D59-E95A8B559EFD}" name="n_uni" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{0560D0A4-EEA2-DD46-B0D1-B0E8B1859464}" name="n_bipolar" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{5CAC8C10-A00F-C744-BBEE-A412EDC09017}" name="n_biphasic" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{E02A03D0-7553-764F-A1EC-C19531AD6694}" name="n_train_rep" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{BC82ECAB-E272-B945-B4F9-404923E69B2C}" name="depth" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{7BC62987-DBF6-8242-9A66-477FF420C321}" name="diameter" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{BA758137-F60F-984E-BB79-AE9C83BFE808}" name="generator" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{9B261674-7C1B-1B4B-A054-F208FE92BC4A}" name="experiment_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -988,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56265552-5F8B-5640-AFF4-B9B334353120}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A26" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,87 +1081,87 @@
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="F3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="F4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -1217,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -1399,7 +1463,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -1424,10 +1488,20 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1445,6 +1519,8 @@
     <hyperlink ref="A46" r:id="rId7" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/EULrYtYXaX9Ko1vMFYDemYUBTHMUr5r933GB3QPXS1uAQQ?e=LeJ9jm" xr:uid="{3AA702AA-FC97-6A4D-B588-4BFDBC3676DD}"/>
     <hyperlink ref="A47" r:id="rId8" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/ESmePT5OzgBBs2eSIMPqL2kBjzTHwcXzE-HJD6lMbGlWPw?e=cTdXlF" xr:uid="{2611F497-A6DF-574C-986D-6BBEF2230740}"/>
     <hyperlink ref="A48" r:id="rId9" display="https://fieldmedical.sharepoint.com/:x:/s/Clinical/EWJo2dOKUsFEqZp0BE2yh5oB0u1cBdYOLsm1hlDaM7W6wQ?e=cyp6ab" xr:uid="{5509B9D5-BD42-1C4E-BF9A-806DD1643B65}"/>
+    <hyperlink ref="A49" r:id="rId10" xr:uid="{A120493C-69FC-904B-AF0E-A0955CB4ABE0}"/>
+    <hyperlink ref="A50" r:id="rId11" xr:uid="{99DBAF5F-549B-D747-9ADF-C6B0134B02F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1452,21 +1528,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5BF2D-E5D2-C74E-BDAA-5F5BFA9E62BE}">
-  <dimension ref="A1:W171"/>
+  <dimension ref="A1:W225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M216" sqref="M216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="16" customWidth="1"/>
-    <col min="5" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="11.6640625" style="3" customWidth="1"/>
-    <col min="12" max="14" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="3"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="16.83203125" customWidth="1"/>
   </cols>
@@ -1478,10 +1561,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1554,10 +1637,10 @@
       <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="15">
         <v>13</v>
       </c>
       <c r="O2" t="s">
@@ -1599,10 +1682,10 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="15">
         <v>4.5</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="15">
         <v>16.2</v>
       </c>
       <c r="O3" t="s">
@@ -1643,10 +1726,10 @@
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="15">
         <v>16</v>
       </c>
       <c r="O4" t="s">
@@ -1687,10 +1770,10 @@
       <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="15">
         <v>16.2</v>
       </c>
       <c r="O5" t="s">
@@ -1731,10 +1814,10 @@
       <c r="K6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="15">
         <v>16.600000000000001</v>
       </c>
       <c r="O6" t="s">
@@ -1775,10 +1858,10 @@
       <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="15">
         <v>17.2</v>
       </c>
       <c r="O7" t="s">
@@ -1819,10 +1902,10 @@
       <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="15">
         <v>5.9</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="15">
         <v>18.3</v>
       </c>
       <c r="O8" t="s">
@@ -1863,10 +1946,10 @@
       <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="15">
         <v>6.2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="15">
         <v>18.2</v>
       </c>
       <c r="O9" t="s">
@@ -1907,10 +1990,10 @@
       <c r="K10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="15">
         <v>5.6</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="15">
         <v>19</v>
       </c>
       <c r="O10" t="s">
@@ -1951,10 +2034,10 @@
       <c r="K11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="15">
         <v>5.9</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="15">
         <v>19.7</v>
       </c>
       <c r="O11" t="s">
@@ -1995,10 +2078,10 @@
       <c r="K13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="15">
         <v>4.8</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="15">
         <v>13.1</v>
       </c>
       <c r="O13" t="s">
@@ -2039,10 +2122,10 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="15">
         <v>5.2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="15">
         <v>16.7</v>
       </c>
       <c r="O14" t="s">
@@ -2083,10 +2166,10 @@
       <c r="K15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="15">
         <v>4.2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="15">
         <v>16</v>
       </c>
       <c r="O15" t="s">
@@ -2127,10 +2210,10 @@
       <c r="K16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="15">
         <v>5</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="15">
         <v>16</v>
       </c>
       <c r="O16" t="s">
@@ -2171,10 +2254,10 @@
       <c r="K17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="15">
         <v>5.4</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="15">
         <v>17.5</v>
       </c>
       <c r="O17" t="s">
@@ -2215,10 +2298,10 @@
       <c r="K18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="15">
         <v>16.399999999999999</v>
       </c>
       <c r="O18" t="s">
@@ -2259,10 +2342,10 @@
       <c r="K19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="15">
         <v>6</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="15">
         <v>19</v>
       </c>
       <c r="O19" t="s">
@@ -2303,10 +2386,10 @@
       <c r="K20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="15">
         <v>6.2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="15">
         <v>18.8</v>
       </c>
       <c r="O20" t="s">
@@ -2347,10 +2430,10 @@
       <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="15">
         <v>5.6</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="15">
         <v>19</v>
       </c>
       <c r="O21" t="s">
@@ -2391,10 +2474,10 @@
       <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="15">
         <v>6</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="15">
         <v>19.5</v>
       </c>
       <c r="O22" t="s">
@@ -2435,10 +2518,10 @@
       <c r="K24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="15">
         <v>4</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="15">
         <v>13.6</v>
       </c>
       <c r="O24" t="s">
@@ -2479,10 +2562,10 @@
       <c r="K25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="15">
         <v>16.7</v>
       </c>
       <c r="O25" t="s">
@@ -2523,10 +2606,10 @@
       <c r="K26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="15">
         <v>16</v>
       </c>
       <c r="O26" t="s">
@@ -2567,10 +2650,10 @@
       <c r="K27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="15">
         <v>5.8</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="15">
         <v>18</v>
       </c>
       <c r="O27" t="s">
@@ -2611,10 +2694,10 @@
       <c r="K28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="15">
         <v>5.3</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="15">
         <v>17.5</v>
       </c>
       <c r="O28" t="s">
@@ -2655,10 +2738,10 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="15">
         <v>5.2</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="15">
         <v>16.399999999999999</v>
       </c>
       <c r="O29" t="s">
@@ -2699,10 +2782,10 @@
       <c r="K30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="15">
         <v>6.1</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="15">
         <v>19</v>
       </c>
       <c r="O30" t="s">
@@ -2743,10 +2826,10 @@
       <c r="K31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="15">
         <v>5.3</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="15">
         <v>18.100000000000001</v>
       </c>
       <c r="O31" t="s">
@@ -2787,10 +2870,10 @@
       <c r="K32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="15">
         <v>6</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="15">
         <v>20</v>
       </c>
       <c r="O32" t="s">
@@ -2831,10 +2914,10 @@
       <c r="K33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="15">
         <v>6</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="15">
         <v>20</v>
       </c>
       <c r="O33" t="s">
@@ -2875,10 +2958,10 @@
       <c r="K35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="15">
         <v>4</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="15">
         <v>10.9</v>
       </c>
       <c r="O35" t="s">
@@ -2926,10 +3009,10 @@
       <c r="K36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="15">
         <v>3.5</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="15">
         <v>9.8000000000000007</v>
       </c>
       <c r="O36" t="s">
@@ -2977,10 +3060,10 @@
       <c r="K37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="15">
         <v>3.9</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="15">
         <v>10.5</v>
       </c>
       <c r="O37" t="s">
@@ -3028,10 +3111,10 @@
       <c r="K38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="15">
         <v>3.9</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="15">
         <v>10.8</v>
       </c>
       <c r="O38" t="s">
@@ -3079,10 +3162,10 @@
       <c r="K39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="15">
         <v>3.7</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="15">
         <v>9.3000000000000007</v>
       </c>
       <c r="O39" t="s">
@@ -3130,10 +3213,10 @@
       <c r="K40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="15">
         <v>4.3</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="15">
         <v>11.7</v>
       </c>
       <c r="O40" t="s">
@@ -3181,10 +3264,10 @@
       <c r="K41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="15">
         <v>3.4</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="15">
         <v>10.3</v>
       </c>
       <c r="O41" t="s">
@@ -3232,10 +3315,10 @@
       <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="15">
         <v>4</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="15">
         <v>10.4</v>
       </c>
       <c r="O42" t="s">
@@ -3283,10 +3366,10 @@
       <c r="K43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="15">
         <v>2</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="15">
         <v>7.2</v>
       </c>
       <c r="O43" t="s">
@@ -3334,10 +3417,10 @@
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="15">
         <v>2.7</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="15">
         <v>20</v>
       </c>
       <c r="O44" t="s">
@@ -3394,10 +3477,10 @@
       <c r="K46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="15">
         <v>4</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="15">
         <v>10.8</v>
       </c>
       <c r="O46" t="s">
@@ -3445,10 +3528,10 @@
       <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="15">
         <v>3.6</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="15">
         <v>10.4</v>
       </c>
       <c r="O47" t="s">
@@ -3496,10 +3579,10 @@
       <c r="K48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="15">
         <v>3.8</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="15">
         <v>10</v>
       </c>
       <c r="O48" t="s">
@@ -3540,10 +3623,10 @@
       <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="15">
         <v>3.4</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="15">
         <v>9.6999999999999993</v>
       </c>
       <c r="O49" t="s">
@@ -3584,10 +3667,10 @@
       <c r="K50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="15">
         <v>3.8</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="15">
         <v>9.8000000000000007</v>
       </c>
       <c r="O50" t="s">
@@ -3628,10 +3711,10 @@
       <c r="K51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="15">
         <v>3.4</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="15">
         <v>10.1</v>
       </c>
       <c r="O51" t="s">
@@ -3672,10 +3755,10 @@
       <c r="K52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="15">
         <v>4</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="15">
         <v>10.3</v>
       </c>
       <c r="O52" t="s">
@@ -3716,10 +3799,10 @@
       <c r="K53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="15">
         <v>3</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="15">
         <v>9.6</v>
       </c>
       <c r="O53" t="s">
@@ -3760,10 +3843,10 @@
       <c r="K54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="15">
         <v>2.1</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="15">
         <v>6.9</v>
       </c>
       <c r="O54" t="s">
@@ -3804,10 +3887,10 @@
       <c r="K55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="15">
         <v>3.7</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="15">
         <v>20</v>
       </c>
       <c r="O55" t="s">
@@ -3848,10 +3931,10 @@
       <c r="K57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="15">
         <v>3.9</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="15">
         <v>9.9</v>
       </c>
       <c r="O57" t="s">
@@ -3892,10 +3975,10 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="15">
         <v>3.9</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="15">
         <v>10</v>
       </c>
       <c r="O58" t="s">
@@ -3936,10 +4019,10 @@
       <c r="K59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="15">
         <v>3.3</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="15">
         <v>9.8000000000000007</v>
       </c>
       <c r="O59" t="s">
@@ -3980,10 +4063,10 @@
       <c r="K60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="15">
         <v>11.8</v>
       </c>
       <c r="O60" t="s">
@@ -4024,10 +4107,10 @@
       <c r="K61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="15">
         <v>3.4</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="15">
         <v>9.6</v>
       </c>
       <c r="O61" t="s">
@@ -4068,10 +4151,10 @@
       <c r="K62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="15">
         <v>4</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="15">
         <v>11.3</v>
       </c>
       <c r="O62" t="s">
@@ -4112,10 +4195,10 @@
       <c r="K63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="15">
         <v>2.5</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="15">
         <v>8.3000000000000007</v>
       </c>
       <c r="O63" t="s">
@@ -4156,10 +4239,10 @@
       <c r="K64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="15">
         <v>3</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="15">
         <v>9.3000000000000007</v>
       </c>
       <c r="O64" t="s">
@@ -4200,10 +4283,10 @@
       <c r="K65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="15">
         <v>2</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="15">
         <v>6.6</v>
       </c>
       <c r="O65" t="s">
@@ -4244,10 +4327,10 @@
       <c r="K66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="15">
         <v>3</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="15">
         <v>16</v>
       </c>
       <c r="O66" t="s">
@@ -4288,10 +4371,10 @@
       <c r="K68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68" s="23">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="23">
         <v>16.75</v>
       </c>
       <c r="O68" t="s">
@@ -4332,10 +4415,10 @@
       <c r="K69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69" s="23">
         <v>5.85</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="23">
         <v>17.52</v>
       </c>
       <c r="O69" t="s">
@@ -4376,10 +4459,10 @@
       <c r="K70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70" s="23">
         <v>6.65</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="23">
         <v>20.83</v>
       </c>
       <c r="O70" t="s">
@@ -4420,10 +4503,10 @@
       <c r="K71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71" s="23">
         <v>22.2</v>
       </c>
       <c r="O71" t="s">
@@ -4464,10 +4547,10 @@
       <c r="K72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72" s="23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="23">
         <v>25.1</v>
       </c>
       <c r="O72" t="s">
@@ -4508,10 +4591,10 @@
       <c r="K73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73" s="23">
         <v>8.4</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="23">
         <v>22</v>
       </c>
       <c r="O73" t="s">
@@ -4552,10 +4635,10 @@
       <c r="K74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74" s="23">
         <v>10.6</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74" s="23">
         <v>24.1</v>
       </c>
       <c r="O74" t="s">
@@ -4596,10 +4679,10 @@
       <c r="K75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75" s="23">
         <v>10.5</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75" s="23">
         <v>22.3</v>
       </c>
       <c r="O75" t="s">
@@ -4640,10 +4723,10 @@
       <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76" s="23">
         <v>10.6</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="23">
         <v>22.5</v>
       </c>
       <c r="O76" t="s">
@@ -4684,10 +4767,10 @@
       <c r="K77" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77" s="23">
         <v>11</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="23">
         <v>22.7</v>
       </c>
       <c r="O77" t="s">
@@ -4728,10 +4811,10 @@
       <c r="K79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L79" s="23">
         <v>4.8</v>
       </c>
-      <c r="M79" s="1"/>
+      <c r="M79" s="23"/>
       <c r="O79" t="s">
         <v>75</v>
       </c>
@@ -4770,8 +4853,8 @@
       <c r="K80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
       <c r="O80" t="s">
         <v>75</v>
       </c>
@@ -4810,8 +4893,8 @@
       <c r="K81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
       <c r="O81" t="s">
         <v>75</v>
       </c>
@@ -4850,10 +4933,10 @@
       <c r="K82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L82" s="23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82" s="23">
         <v>21.3</v>
       </c>
       <c r="O82" t="s">
@@ -4894,10 +4977,10 @@
       <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L83" s="23">
         <v>7.6</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83" s="23">
         <v>22.3</v>
       </c>
       <c r="O83" t="s">
@@ -4938,10 +5021,10 @@
       <c r="K84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L84" s="23">
         <v>8.4</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M84" s="23">
         <v>22.4</v>
       </c>
       <c r="O84" t="s">
@@ -4982,10 +5065,10 @@
       <c r="K85" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L85" s="23">
         <v>10.6</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85" s="23">
         <v>23.2</v>
       </c>
       <c r="O85" t="s">
@@ -5026,10 +5109,10 @@
       <c r="K86" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86" s="23">
         <v>11.8</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86" s="23">
         <v>23.3</v>
       </c>
       <c r="O86" t="s">
@@ -5070,10 +5153,10 @@
       <c r="K87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L87" s="23">
         <v>10.8</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87" s="23">
         <v>23.5</v>
       </c>
       <c r="O87" t="s">
@@ -5114,10 +5197,10 @@
       <c r="K88" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L88" s="23">
         <v>10.4</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88" s="23">
         <v>23.8</v>
       </c>
       <c r="O88" t="s">
@@ -5158,10 +5241,10 @@
       <c r="K90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L90" s="1">
+      <c r="L90" s="23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M90" s="1"/>
+      <c r="M90" s="23"/>
       <c r="O90" t="s">
         <v>75</v>
       </c>
@@ -5200,8 +5283,8 @@
       <c r="K91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
       <c r="O91" t="s">
         <v>75</v>
       </c>
@@ -5240,8 +5323,8 @@
       <c r="K92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
       <c r="O92" t="s">
         <v>75</v>
       </c>
@@ -5280,10 +5363,10 @@
       <c r="K93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L93" s="23">
         <v>6.7</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93" s="23">
         <v>23.5</v>
       </c>
       <c r="O93" t="s">
@@ -5324,10 +5407,10 @@
       <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L94" s="23">
         <v>7.8</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94" s="23">
         <v>23.3</v>
       </c>
       <c r="O94" t="s">
@@ -5368,10 +5451,10 @@
       <c r="K95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L95" s="1">
+      <c r="L95" s="23">
         <v>9.4</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95" s="23">
         <v>23.3</v>
       </c>
       <c r="O95" t="s">
@@ -5412,10 +5495,10 @@
       <c r="K96" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L96" s="23">
         <v>9.6</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M96" s="23">
         <v>24.8</v>
       </c>
       <c r="O96" t="s">
@@ -5456,10 +5539,10 @@
       <c r="K97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L97" s="1">
+      <c r="L97" s="23">
         <v>12</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M97" s="23">
         <v>23.3</v>
       </c>
       <c r="O97" t="s">
@@ -5500,10 +5583,10 @@
       <c r="K98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L98" s="23">
         <v>9.6</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98" s="23">
         <v>22.8</v>
       </c>
       <c r="O98" t="s">
@@ -5544,10 +5627,10 @@
       <c r="K99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L99" s="23">
         <v>10.5</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99" s="23">
         <v>23.2</v>
       </c>
       <c r="O99" t="s">
@@ -5588,10 +5671,10 @@
       <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L101" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="23">
         <v>23.4</v>
       </c>
       <c r="O101" t="s">
@@ -5632,10 +5715,10 @@
       <c r="K102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L102" s="1">
+      <c r="L102" s="23">
         <v>8.5</v>
       </c>
-      <c r="M102" s="1">
+      <c r="M102" s="23">
         <v>27</v>
       </c>
       <c r="O102" t="s">
@@ -5676,10 +5759,10 @@
       <c r="K103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L103" s="1">
+      <c r="L103" s="23">
         <v>13.5</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M103" s="23">
         <v>40.299999999999997</v>
       </c>
       <c r="O103" t="s">
@@ -5720,10 +5803,10 @@
       <c r="K104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L104" s="1">
+      <c r="L104" s="23">
         <v>15.8</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104" s="23">
         <v>45</v>
       </c>
       <c r="O104" t="s">
@@ -5764,10 +5847,10 @@
       <c r="K105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L105" s="1">
+      <c r="L105" s="23">
         <v>18.3</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105" s="23">
         <v>57.9</v>
       </c>
       <c r="O105" t="s">
@@ -5808,10 +5891,10 @@
       <c r="K106" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L106" s="23">
         <v>17.7</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M106" s="23">
         <v>56.8</v>
       </c>
       <c r="O106" t="s">
@@ -5852,10 +5935,10 @@
       <c r="K107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L107" s="1">
+      <c r="L107" s="23">
         <v>15.5</v>
       </c>
-      <c r="M107" s="1">
+      <c r="M107" s="23">
         <v>53.8</v>
       </c>
       <c r="O107" t="s">
@@ -5896,10 +5979,10 @@
       <c r="K108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L108" s="1">
+      <c r="L108" s="23">
         <v>18.2</v>
       </c>
-      <c r="M108" s="1">
+      <c r="M108" s="23">
         <v>52.7</v>
       </c>
       <c r="O108" t="s">
@@ -5940,10 +6023,10 @@
       <c r="K109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L109" s="1">
+      <c r="L109" s="23">
         <v>15.5</v>
       </c>
-      <c r="M109" s="1">
+      <c r="M109" s="23">
         <v>51.9</v>
       </c>
       <c r="O109" t="s">
@@ -5984,10 +6067,10 @@
       <c r="K110" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L110" s="1">
+      <c r="L110" s="23">
         <v>18.600000000000001</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M110" s="23">
         <v>54.7</v>
       </c>
       <c r="O110" t="s">
@@ -6028,10 +6111,10 @@
       <c r="K112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L112" s="1">
+      <c r="L112" s="23">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M112" s="1">
+      <c r="M112" s="23">
         <v>27</v>
       </c>
       <c r="O112" t="s">
@@ -6072,10 +6155,10 @@
       <c r="K113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L113" s="1">
+      <c r="L113" s="23">
         <v>10.8</v>
       </c>
-      <c r="M113" s="1">
+      <c r="M113" s="23">
         <v>27.3</v>
       </c>
       <c r="O113" t="s">
@@ -6116,10 +6199,10 @@
       <c r="K114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L114" s="1">
+      <c r="L114" s="23">
         <v>14.3</v>
       </c>
-      <c r="M114" s="1">
+      <c r="M114" s="23">
         <v>37.799999999999997</v>
       </c>
       <c r="O114" t="s">
@@ -6160,10 +6243,10 @@
       <c r="K115" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L115" s="1">
+      <c r="L115" s="23">
         <v>15</v>
       </c>
-      <c r="M115" s="1">
+      <c r="M115" s="23">
         <v>47.9</v>
       </c>
       <c r="O115" t="s">
@@ -6204,10 +6287,10 @@
       <c r="K116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L116" s="1">
+      <c r="L116" s="23">
         <v>18</v>
       </c>
-      <c r="M116" s="1">
+      <c r="M116" s="23">
         <v>53</v>
       </c>
       <c r="O116" t="s">
@@ -6248,10 +6331,10 @@
       <c r="K117" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L117" s="1">
+      <c r="L117" s="23">
         <v>15.3</v>
       </c>
-      <c r="M117" s="1">
+      <c r="M117" s="23">
         <v>46.8</v>
       </c>
       <c r="O117" t="s">
@@ -6292,10 +6375,10 @@
       <c r="K118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L118" s="1">
+      <c r="L118" s="23">
         <v>18.399999999999999</v>
       </c>
-      <c r="M118" s="1">
+      <c r="M118" s="23">
         <v>54.7</v>
       </c>
       <c r="O118" t="s">
@@ -6336,10 +6419,10 @@
       <c r="K119" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L119" s="1">
+      <c r="L119" s="23">
         <v>16.399999999999999</v>
       </c>
-      <c r="M119" s="1">
+      <c r="M119" s="23">
         <v>52.1</v>
       </c>
       <c r="O119" t="s">
@@ -6380,10 +6463,10 @@
       <c r="K120" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L120" s="1">
+      <c r="L120" s="23">
         <v>17.5</v>
       </c>
-      <c r="M120" s="1">
+      <c r="M120" s="23">
         <v>53.3</v>
       </c>
       <c r="O120" t="s">
@@ -6424,10 +6507,10 @@
       <c r="K121" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L121" s="1">
+      <c r="L121" s="23">
         <v>17.3</v>
       </c>
-      <c r="M121" s="1">
+      <c r="M121" s="23">
         <v>54.4</v>
       </c>
       <c r="O121" t="s">
@@ -6468,10 +6551,10 @@
       <c r="K123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L123" s="1">
+      <c r="L123" s="23">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M123" s="1">
+      <c r="M123" s="23">
         <v>23.5</v>
       </c>
       <c r="O123" t="s">
@@ -6512,10 +6595,10 @@
       <c r="K124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L124" s="1">
+      <c r="L124" s="23">
         <v>14.6</v>
       </c>
-      <c r="M124" s="1">
+      <c r="M124" s="23">
         <v>31</v>
       </c>
       <c r="O124" t="s">
@@ -6556,10 +6639,10 @@
       <c r="K125" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L125" s="1">
+      <c r="L125" s="23">
         <v>14.8</v>
       </c>
-      <c r="M125" s="1">
+      <c r="M125" s="23">
         <v>44.5</v>
       </c>
       <c r="O125" t="s">
@@ -6600,10 +6683,10 @@
       <c r="K126" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L126" s="1">
+      <c r="L126" s="23">
         <v>16.8</v>
       </c>
-      <c r="M126" s="1">
+      <c r="M126" s="23">
         <v>47</v>
       </c>
       <c r="O126" t="s">
@@ -6644,10 +6727,10 @@
       <c r="K127" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L127" s="1">
+      <c r="L127" s="23">
         <v>15.8</v>
       </c>
-      <c r="M127" s="1">
+      <c r="M127" s="23">
         <v>57.5</v>
       </c>
       <c r="O127" t="s">
@@ -6688,10 +6771,10 @@
       <c r="K128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L128" s="1">
+      <c r="L128" s="23">
         <v>15.8</v>
       </c>
-      <c r="M128" s="1">
+      <c r="M128" s="23">
         <v>57.9</v>
       </c>
       <c r="O128" t="s">
@@ -6732,10 +6815,10 @@
       <c r="K129" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L129" s="1">
+      <c r="L129" s="23">
         <v>18</v>
       </c>
-      <c r="M129" s="1">
+      <c r="M129" s="23">
         <v>50.4</v>
       </c>
       <c r="O129" t="s">
@@ -6776,10 +6859,10 @@
       <c r="K130" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L130" s="1">
+      <c r="L130" s="23">
         <v>15.7</v>
       </c>
-      <c r="M130" s="1">
+      <c r="M130" s="23">
         <v>53.1</v>
       </c>
       <c r="O130" t="s">
@@ -6820,10 +6903,10 @@
       <c r="K131" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L131" s="1">
+      <c r="L131" s="23">
         <v>14.9</v>
       </c>
-      <c r="M131" s="1">
+      <c r="M131" s="23">
         <v>53.6</v>
       </c>
       <c r="O131" t="s">
@@ -6864,10 +6947,10 @@
       <c r="K132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L132" s="1">
+      <c r="L132" s="23">
         <v>18.5</v>
       </c>
-      <c r="M132" s="1">
+      <c r="M132" s="23">
         <v>52.6</v>
       </c>
       <c r="O132" t="s">
@@ -6908,10 +6991,10 @@
       <c r="K134" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L134" s="4">
+      <c r="L134" s="15">
         <v>9</v>
       </c>
-      <c r="M134" s="4">
+      <c r="M134" s="15">
         <v>26</v>
       </c>
       <c r="O134" t="s">
@@ -6952,10 +7035,10 @@
       <c r="K135" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L135" s="4">
+      <c r="L135" s="15">
         <v>10.8</v>
       </c>
-      <c r="M135" s="4">
+      <c r="M135" s="15">
         <v>29</v>
       </c>
       <c r="O135" t="s">
@@ -6996,10 +7079,10 @@
       <c r="K136" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L136" s="4">
+      <c r="L136" s="15">
         <v>9</v>
       </c>
-      <c r="M136" s="4">
+      <c r="M136" s="15">
         <v>29</v>
       </c>
       <c r="O136" t="s">
@@ -7040,10 +7123,10 @@
       <c r="K137" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L137" s="4">
+      <c r="L137" s="15">
         <v>18</v>
       </c>
-      <c r="M137" s="4">
+      <c r="M137" s="15">
         <v>40</v>
       </c>
       <c r="O137" t="s">
@@ -7084,10 +7167,10 @@
       <c r="K138" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L138" s="4">
+      <c r="L138" s="15">
         <v>13.5</v>
       </c>
-      <c r="M138" s="4">
+      <c r="M138" s="15">
         <v>40</v>
       </c>
       <c r="O138" t="s">
@@ -7128,10 +7211,10 @@
       <c r="K139" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L139" s="4">
+      <c r="L139" s="15">
         <v>16</v>
       </c>
-      <c r="M139" s="4">
+      <c r="M139" s="15">
         <v>41</v>
       </c>
       <c r="O139" t="s">
@@ -7172,10 +7255,10 @@
       <c r="K140" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L140" s="4">
+      <c r="L140" s="15">
         <v>17</v>
       </c>
-      <c r="M140" s="4">
+      <c r="M140" s="15">
         <v>44</v>
       </c>
       <c r="O140" t="s">
@@ -7216,10 +7299,10 @@
       <c r="K141" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L141" s="4">
+      <c r="L141" s="15">
         <v>21</v>
       </c>
-      <c r="M141" s="4">
+      <c r="M141" s="15">
         <v>42</v>
       </c>
       <c r="O141" t="s">
@@ -7260,10 +7343,10 @@
       <c r="K142" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L142" s="4">
+      <c r="L142" s="15">
         <v>21</v>
       </c>
-      <c r="M142" s="4">
+      <c r="M142" s="15">
         <v>43</v>
       </c>
       <c r="O142" t="s">
@@ -7304,10 +7387,10 @@
       <c r="K143" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L143" s="4">
-        <v>24</v>
-      </c>
-      <c r="M143" s="4">
+      <c r="L143" s="15">
+        <v>24</v>
+      </c>
+      <c r="M143" s="15">
         <v>49</v>
       </c>
       <c r="O143" t="s">
@@ -7348,10 +7431,10 @@
       <c r="K145" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L145" s="4">
+      <c r="L145" s="15">
         <v>8.4</v>
       </c>
-      <c r="M145" s="4">
+      <c r="M145" s="15">
         <v>26</v>
       </c>
       <c r="O145" t="s">
@@ -7392,10 +7475,10 @@
       <c r="K146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L146" s="4">
+      <c r="L146" s="15">
         <v>13</v>
       </c>
-      <c r="M146" s="4">
+      <c r="M146" s="15">
         <v>31</v>
       </c>
       <c r="O146" t="s">
@@ -7436,10 +7519,10 @@
       <c r="K147" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L147" s="4">
+      <c r="L147" s="15">
         <v>12.9</v>
       </c>
-      <c r="M147" s="4">
+      <c r="M147" s="15">
         <v>31</v>
       </c>
       <c r="O147" t="s">
@@ -7480,10 +7563,10 @@
       <c r="K148" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L148" s="4">
+      <c r="L148" s="15">
         <v>16</v>
       </c>
-      <c r="M148" s="4">
+      <c r="M148" s="15">
         <v>41</v>
       </c>
       <c r="O148" t="s">
@@ -7524,10 +7607,10 @@
       <c r="K149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L149" s="4">
+      <c r="L149" s="15">
         <v>15</v>
       </c>
-      <c r="M149" s="4">
+      <c r="M149" s="15">
         <v>43</v>
       </c>
       <c r="O149" t="s">
@@ -7568,10 +7651,10 @@
       <c r="K150" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L150" s="4">
+      <c r="L150" s="15">
         <v>18</v>
       </c>
-      <c r="M150" s="4">
+      <c r="M150" s="15">
         <v>48</v>
       </c>
       <c r="O150" t="s">
@@ -7612,10 +7695,10 @@
       <c r="K151" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L151" s="4">
+      <c r="L151" s="15">
         <v>21</v>
       </c>
-      <c r="M151" s="4">
+      <c r="M151" s="15">
         <v>42</v>
       </c>
       <c r="O151" t="s">
@@ -7656,10 +7739,10 @@
       <c r="K152" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L152" s="4">
+      <c r="L152" s="15">
         <v>21</v>
       </c>
-      <c r="M152" s="4">
+      <c r="M152" s="15">
         <v>49</v>
       </c>
       <c r="O152" t="s">
@@ -7700,10 +7783,10 @@
       <c r="K153" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L153" s="4">
+      <c r="L153" s="15">
         <v>21</v>
       </c>
-      <c r="M153" s="4">
+      <c r="M153" s="15">
         <v>45</v>
       </c>
       <c r="O153" t="s">
@@ -7744,10 +7827,10 @@
       <c r="K154" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L154" s="4">
+      <c r="L154" s="15">
         <v>21</v>
       </c>
-      <c r="M154" s="4">
+      <c r="M154" s="15">
         <v>48</v>
       </c>
       <c r="O154" t="s">
@@ -7788,10 +7871,10 @@
       <c r="K156" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L156" s="4">
+      <c r="L156" s="15">
         <v>8</v>
       </c>
-      <c r="M156" s="4">
+      <c r="M156" s="15">
         <v>27</v>
       </c>
       <c r="O156" t="s">
@@ -7832,10 +7915,10 @@
       <c r="K157" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L157" s="4">
+      <c r="L157" s="15">
         <v>11.4</v>
       </c>
-      <c r="M157" s="4">
+      <c r="M157" s="15">
         <v>29</v>
       </c>
       <c r="O157" t="s">
@@ -7876,10 +7959,10 @@
       <c r="K158" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L158" s="4">
+      <c r="L158" s="15">
         <v>15</v>
       </c>
-      <c r="M158" s="4">
+      <c r="M158" s="15">
         <v>40</v>
       </c>
       <c r="O158" t="s">
@@ -7920,10 +8003,10 @@
       <c r="K159" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L159" s="4">
+      <c r="L159" s="15">
         <v>13</v>
       </c>
-      <c r="M159" s="4">
+      <c r="M159" s="15">
         <v>43</v>
       </c>
       <c r="O159" t="s">
@@ -7964,10 +8047,10 @@
       <c r="K160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L160" s="4">
+      <c r="L160" s="15">
         <v>14</v>
       </c>
-      <c r="M160" s="4">
+      <c r="M160" s="15">
         <v>41</v>
       </c>
       <c r="O160" t="s">
@@ -8008,10 +8091,10 @@
       <c r="K161" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L161" s="4">
+      <c r="L161" s="15">
         <v>16</v>
       </c>
-      <c r="M161" s="4">
+      <c r="M161" s="15">
         <v>41</v>
       </c>
       <c r="O161" t="s">
@@ -8052,10 +8135,10 @@
       <c r="K162" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L162" s="4">
+      <c r="L162" s="15">
         <v>20</v>
       </c>
-      <c r="M162" s="4">
+      <c r="M162" s="15">
         <v>38</v>
       </c>
       <c r="O162" t="s">
@@ -8096,10 +8179,10 @@
       <c r="K163" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L163" s="4">
+      <c r="L163" s="15">
         <v>23</v>
       </c>
-      <c r="M163" s="4">
+      <c r="M163" s="15">
         <v>45</v>
       </c>
       <c r="O163" t="s">
@@ -8140,10 +8223,10 @@
       <c r="K164" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L164" s="4">
+      <c r="L164" s="15">
         <v>20.7</v>
       </c>
-      <c r="M164" s="4">
+      <c r="M164" s="15">
         <v>48</v>
       </c>
       <c r="O164" t="s">
@@ -8184,10 +8267,10 @@
       <c r="K165" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L165" s="4">
+      <c r="L165" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="M165" s="4">
+      <c r="M165" s="15">
         <v>49</v>
       </c>
       <c r="O165" t="s">
@@ -8195,19 +8278,2267 @@
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D167"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
+      <c r="A167" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="15">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L167" s="16">
+        <v>7</v>
+      </c>
+      <c r="M167" s="16">
+        <v>35</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O167" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="15">
+        <v>2</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L168" s="16">
+        <v>12</v>
+      </c>
+      <c r="M168" s="16">
+        <v>42</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O168" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D169"/>
+      <c r="A169" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="15">
+        <v>3</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L169" s="16">
+        <v>13</v>
+      </c>
+      <c r="M169" s="16">
+        <v>43</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O169" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="15">
+        <v>4</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L170" s="16">
+        <v>12</v>
+      </c>
+      <c r="M170" s="16">
+        <v>41</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O170" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D171"/>
+      <c r="A171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="15">
+        <v>5</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L171" s="16">
+        <v>14</v>
+      </c>
+      <c r="M171" s="16">
+        <v>40</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O171" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="15">
+        <v>6</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L172" s="16">
+        <v>14</v>
+      </c>
+      <c r="M172" s="16">
+        <v>42</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O172" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="15">
+        <v>7</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L173" s="16">
+        <v>14</v>
+      </c>
+      <c r="M173" s="16">
+        <v>45</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O173" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="15">
+        <v>8</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L174" s="16">
+        <v>14</v>
+      </c>
+      <c r="M174" s="16">
+        <v>46</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O174" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" s="15">
+        <v>9</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L175" s="16">
+        <v>15</v>
+      </c>
+      <c r="M175" s="16">
+        <v>46</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O175" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="15">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L176" s="16">
+        <v>14</v>
+      </c>
+      <c r="M176" s="16">
+        <v>45</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O176" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="15">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L178" s="16">
+        <v>7</v>
+      </c>
+      <c r="M178" s="16">
+        <v>34</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O178" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="15">
+        <v>2</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L179" s="16">
+        <v>11</v>
+      </c>
+      <c r="M179" s="16">
+        <v>37</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O179" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" s="15">
+        <v>3</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L180" s="16">
+        <v>12</v>
+      </c>
+      <c r="M180" s="16">
+        <v>42</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O180" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="15">
+        <v>4</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L181" s="16">
+        <v>13</v>
+      </c>
+      <c r="M181" s="16">
+        <v>42</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="15">
+        <v>5</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L182" s="16">
+        <v>14</v>
+      </c>
+      <c r="M182" s="16">
+        <v>43</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O182" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="15">
+        <v>6</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L183" s="16">
+        <v>14</v>
+      </c>
+      <c r="M183" s="16">
+        <v>43</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O183" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" s="15">
+        <v>7</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L184" s="16">
+        <v>14</v>
+      </c>
+      <c r="M184" s="16">
+        <v>45</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O184" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="15">
+        <v>8</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L185" s="16">
+        <v>14</v>
+      </c>
+      <c r="M185" s="16">
+        <v>44</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O185" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="15">
+        <v>9</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L186" s="16">
+        <v>14</v>
+      </c>
+      <c r="M186" s="16">
+        <v>46</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O186" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187" s="15">
+        <v>10</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L187" s="16">
+        <v>14</v>
+      </c>
+      <c r="M187" s="16">
+        <v>45</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O187" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="15">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L189" s="16">
+        <v>8</v>
+      </c>
+      <c r="M189" s="16">
+        <v>35</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O189" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="15">
+        <v>2</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L190" s="16">
+        <v>13</v>
+      </c>
+      <c r="M190" s="16">
+        <v>40</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O190" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="15">
+        <v>3</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L191" s="16">
+        <v>13</v>
+      </c>
+      <c r="M191" s="16">
+        <v>41</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O191" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" s="15">
+        <v>4</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L192" s="16">
+        <v>12</v>
+      </c>
+      <c r="M192" s="16">
+        <v>40</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O192" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="15">
+        <v>5</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L193" s="16">
+        <v>14</v>
+      </c>
+      <c r="M193" s="16">
+        <v>44</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O193" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="15">
+        <v>6</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L194" s="16">
+        <v>14</v>
+      </c>
+      <c r="M194" s="16">
+        <v>45</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="15">
+        <v>7</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L195" s="16">
+        <v>14</v>
+      </c>
+      <c r="M195" s="16">
+        <v>45</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O195" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="15">
+        <v>8</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L196" s="16">
+        <v>14</v>
+      </c>
+      <c r="M196" s="16">
+        <v>45</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" s="15">
+        <v>9</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L197" s="16">
+        <v>14</v>
+      </c>
+      <c r="M197" s="16">
+        <v>44</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O197" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" s="15">
+        <v>10</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L198" s="16">
+        <v>15</v>
+      </c>
+      <c r="M198" s="16">
+        <v>45</v>
+      </c>
+      <c r="N198" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O198" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" s="15">
+        <v>1</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L200" s="16">
+        <v>7</v>
+      </c>
+      <c r="M200" s="16">
+        <v>36</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O200" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="15">
+        <v>2</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L201" s="16">
+        <v>12</v>
+      </c>
+      <c r="M201" s="16">
+        <v>40</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O201" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" s="15">
+        <v>3</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L202" s="16">
+        <v>13</v>
+      </c>
+      <c r="M202" s="16">
+        <v>40</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O202" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" s="15">
+        <v>4</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L203" s="16">
+        <v>13</v>
+      </c>
+      <c r="M203" s="16">
+        <v>42</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O203" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="15">
+        <v>5</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L204" s="16">
+        <v>13</v>
+      </c>
+      <c r="M204" s="16">
+        <v>42</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O204" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="15">
+        <v>6</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L205" s="16">
+        <v>15</v>
+      </c>
+      <c r="M205" s="16">
+        <v>45</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O205" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206" s="15">
+        <v>7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L206" s="16">
+        <v>14</v>
+      </c>
+      <c r="M206" s="16">
+        <v>45</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O206" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" s="15">
+        <v>8</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L207" s="16">
+        <v>14</v>
+      </c>
+      <c r="M207" s="16">
+        <v>45</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O207" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" s="15">
+        <v>9</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L208" s="16">
+        <v>14</v>
+      </c>
+      <c r="M208" s="16">
+        <v>44</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O208" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D209" s="15">
+        <v>10</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L209" s="16">
+        <v>14</v>
+      </c>
+      <c r="M209" s="16">
+        <v>46</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O209" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="16">
+        <v>5</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L211" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M211" s="24">
+        <v>55</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O211" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" s="16">
+        <v>5</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L213" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M213" s="24">
+        <v>50</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O213" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A215" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" s="19">
+        <v>5</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F215" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I215" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J215" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K215" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L215" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M215" s="25">
+        <v>40</v>
+      </c>
+      <c r="N215" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O215" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A217" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" s="19">
+        <v>5</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F217" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I217" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J217" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L217" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M217" s="25">
+        <v>40</v>
+      </c>
+      <c r="N217" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O217" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" s="16">
+        <v>5</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L219" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M219" s="24">
+        <v>55</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O219" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221" s="16">
+        <v>5</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L221" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M221" s="24">
+        <v>50</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O221" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" s="16">
+        <v>5</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L223" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M223" s="24">
+        <v>40</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O223" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" s="16">
+        <v>5</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L225" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M225" s="24">
+        <v>40</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O225" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I174" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -8218,7 +10549,7 @@
           <x14:formula1>
             <xm:f>'Data Validation'!$B$13:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1:B214 B216 B218:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="Seems like you selected an unlisted waveform, did you make a typo or do we need to expand the list?" promptTitle="Choose the Pulse Sequence " xr:uid="{686B3C70-6FC7-404A-8B44-E01A73EB6FA6}">
           <x14:formula1>
@@ -8230,13 +10561,13 @@
           <x14:formula1>
             <xm:f>'Data Validation'!$D$4:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G35:G66 G90:G99 G68:G77 G79:G88 F2:F1048576</xm:sqref>
+          <xm:sqref>G35:G66 G90:G99 G68:G77 G79:G88 F2:F214 F216 F218:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="Seems like you selected an unlisted waveform, did you make a typo or do we need to expand the list?" promptTitle="Select Waveform" xr:uid="{82DB6A83-068A-FD41-A020-75D156C5BCB7}">
           <x14:formula1>
             <xm:f>'Data Validation'!$B$4:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G34 G67 G78 G89 G100:G1048576</xm:sqref>
+          <xm:sqref>G1:G34 G67 G78 G89 G100:G214 G216 G218:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8417,12 +10748,12 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">

--- a/data/raw/dr_db.xlsx
+++ b/data/raw/dr_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/Dose_Response/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA644BC-116D-F549-9142-A16A2AA73B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A9D763-646C-8841-8E77-1022F69A55A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="760" windowWidth="32460" windowHeight="19880" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -355,6 +355,9 @@
   <si>
     <t>16</t>
   </si>
+  <si>
+    <t>On 8/8/24, we discovered that the fast-switch wasn't working and these were actually just bipolar pulses</t>
+  </si>
 </sst>
 </file>
 
@@ -450,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -476,33 +479,19 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -578,6 +567,18 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -672,10 +673,10 @@
     <tableColumn id="8" xr3:uid="{56F928AF-CB3C-E149-8BCB-A51BF644C943}" name="n_uni" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{ED7FD3EA-7EC8-C44E-B842-D41BC4E34E28}" name="n_bipolar" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{4C58E439-210E-624E-8CBA-1B8E3E20A8D0}" name="n_biphasic" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{33292D2D-93D1-0141-B0C4-17ADAC1EC6C4}" name="n_train_rep" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{06C7383A-C15D-0F42-B5DC-7D691A9E0CFD}" name="depth" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{132A6AB1-07EA-F44C-A2A9-8A6937FEFAA1}" name="diameter" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{0FF87492-98E8-9A4C-9C1E-E98D8E1095A4}" name="generator" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{33292D2D-93D1-0141-B0C4-17ADAC1EC6C4}" name="n_train_rep" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{06C7383A-C15D-0F42-B5DC-7D691A9E0CFD}" name="depth" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{132A6AB1-07EA-F44C-A2A9-8A6937FEFAA1}" name="diameter" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{0FF87492-98E8-9A4C-9C1E-E98D8E1095A4}" name="generator" dataDxfId="15"/>
     <tableColumn id="15" xr3:uid="{A18459C3-5D4F-CB4B-ACD6-1064E84E0396}" name="experiment_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -683,22 +684,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C29E30DD-FBFD-ED4C-AB59-BD9C1B2C8A3E}" name="Table5" displayName="Table5" ref="A1:O550" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C29E30DD-FBFD-ED4C-AB59-BD9C1B2C8A3E}" name="Table5" displayName="Table5" ref="A1:O550" totalsRowShown="0" headerRowDxfId="14">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{07AA4434-D3EA-904D-9B49-A29B767D968A}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{60A59FF1-F641-7B4C-84A1-9730C0401CE0}" name="species" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0020F4F1-3D27-004D-B06E-F766281016D4}" name="lesion_num" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{CAEFC5A6-354E-C247-8CCA-AE70E4009996}" name="application_num" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{BB712484-2619-5E46-9E06-15FAA0A58D62}" name="voltage" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{95534238-E903-0544-9199-5E0678FB44F8}" name="pulse_seq" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{3D36EE62-2338-2D42-90C1-FD561C8DA56B}" name="waveform" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{CF414030-D9BA-0543-9D59-E95A8B559EFD}" name="n_uni" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{0560D0A4-EEA2-DD46-B0D1-B0E8B1859464}" name="n_bipolar" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{5CAC8C10-A00F-C744-BBEE-A412EDC09017}" name="n_biphasic" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{E02A03D0-7553-764F-A1EC-C19531AD6694}" name="n_train_rep" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{BC82ECAB-E272-B945-B4F9-404923E69B2C}" name="depth" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{7BC62987-DBF6-8242-9A66-477FF420C321}" name="diameter" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{BA758137-F60F-984E-BB79-AE9C83BFE808}" name="generator" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{07AA4434-D3EA-904D-9B49-A29B767D968A}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{60A59FF1-F641-7B4C-84A1-9730C0401CE0}" name="species" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0020F4F1-3D27-004D-B06E-F766281016D4}" name="lesion_num" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CAEFC5A6-354E-C247-8CCA-AE70E4009996}" name="application_num" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BB712484-2619-5E46-9E06-15FAA0A58D62}" name="voltage" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{95534238-E903-0544-9199-5E0678FB44F8}" name="pulse_seq" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3D36EE62-2338-2D42-90C1-FD561C8DA56B}" name="waveform" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{CF414030-D9BA-0543-9D59-E95A8B559EFD}" name="n_uni" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{0560D0A4-EEA2-DD46-B0D1-B0E8B1859464}" name="n_bipolar" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{5CAC8C10-A00F-C744-BBEE-A412EDC09017}" name="n_biphasic" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E02A03D0-7553-764F-A1EC-C19531AD6694}" name="n_train_rep" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{BC82ECAB-E272-B945-B4F9-404923E69B2C}" name="depth" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{7BC62987-DBF6-8242-9A66-477FF420C321}" name="diameter" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{BA758137-F60F-984E-BB79-AE9C83BFE808}" name="generator" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{9B261674-7C1B-1B4B-A054-F208FE92BC4A}" name="experiment_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1054,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56265552-5F8B-5640-AFF4-B9B334353120}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="156" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A90" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,87 +1082,87 @@
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="F3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="F4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="F5" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -1470,10 +1471,16 @@
       <c r="A44" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="D44" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>10</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -1530,9 +1537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5BF2D-E5D2-C74E-BDAA-5F5BFA9E62BE}">
   <dimension ref="A1:W225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M216" sqref="M216"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>20</v>
@@ -2995,7 +3002,7 @@
         <v>45</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>21</v>
@@ -3046,7 +3053,7 @@
         <v>45</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>22</v>
@@ -3097,7 +3104,7 @@
         <v>45</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>23</v>
@@ -3148,7 +3155,7 @@
         <v>45</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>24</v>
@@ -3199,7 +3206,7 @@
         <v>45</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>25</v>
@@ -3250,7 +3257,7 @@
         <v>45</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>26</v>
@@ -3301,7 +3308,7 @@
         <v>45</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>27</v>
@@ -3352,7 +3359,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>28</v>
@@ -3403,7 +3410,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>29</v>
@@ -3463,7 +3470,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>20</v>
@@ -3514,7 +3521,7 @@
         <v>45</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>21</v>
@@ -3565,7 +3572,7 @@
         <v>45</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>22</v>
@@ -3609,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>23</v>
@@ -3653,7 +3660,7 @@
         <v>45</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>24</v>
@@ -3697,7 +3704,7 @@
         <v>45</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>25</v>
@@ -3741,7 +3748,7 @@
         <v>45</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>26</v>
@@ -3785,7 +3792,7 @@
         <v>45</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>27</v>
@@ -3829,7 +3836,7 @@
         <v>45</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>28</v>
@@ -3873,7 +3880,7 @@
         <v>45</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>29</v>
@@ -3917,7 +3924,7 @@
         <v>45</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>20</v>
@@ -3961,7 +3968,7 @@
         <v>45</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>21</v>
@@ -4005,7 +4012,7 @@
         <v>45</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>22</v>
@@ -4049,7 +4056,7 @@
         <v>45</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>23</v>
@@ -4093,7 +4100,7 @@
         <v>45</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>24</v>
@@ -4137,7 +4144,7 @@
         <v>45</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>25</v>
@@ -4181,7 +4188,7 @@
         <v>45</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>26</v>
@@ -4225,7 +4232,7 @@
         <v>45</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>27</v>
@@ -4269,7 +4276,7 @@
         <v>45</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>28</v>
@@ -4313,7 +4320,7 @@
         <v>45</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>29</v>
@@ -4357,7 +4364,7 @@
         <v>45</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>20</v>
@@ -4371,10 +4378,10 @@
       <c r="K68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L68" s="23">
+      <c r="L68" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M68" s="23">
+      <c r="M68" s="21">
         <v>16.75</v>
       </c>
       <c r="O68" t="s">
@@ -4401,7 +4408,7 @@
         <v>45</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>20</v>
@@ -4415,10 +4422,10 @@
       <c r="K69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L69" s="23">
+      <c r="L69" s="21">
         <v>5.85</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="21">
         <v>17.52</v>
       </c>
       <c r="O69" t="s">
@@ -4445,7 +4452,7 @@
         <v>45</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>20</v>
@@ -4459,10 +4466,10 @@
       <c r="K70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L70" s="23">
+      <c r="L70" s="21">
         <v>6.65</v>
       </c>
-      <c r="M70" s="23">
+      <c r="M70" s="21">
         <v>20.83</v>
       </c>
       <c r="O70" t="s">
@@ -4489,7 +4496,7 @@
         <v>45</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>20</v>
@@ -4503,10 +4510,10 @@
       <c r="K71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L71" s="23">
+      <c r="L71" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M71" s="21">
         <v>22.2</v>
       </c>
       <c r="O71" t="s">
@@ -4533,7 +4540,7 @@
         <v>45</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>20</v>
@@ -4547,10 +4554,10 @@
       <c r="K72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L72" s="23">
+      <c r="L72" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M72" s="23">
+      <c r="M72" s="21">
         <v>25.1</v>
       </c>
       <c r="O72" t="s">
@@ -4577,7 +4584,7 @@
         <v>45</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>20</v>
@@ -4591,10 +4598,10 @@
       <c r="K73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L73" s="23">
+      <c r="L73" s="21">
         <v>8.4</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="21">
         <v>22</v>
       </c>
       <c r="O73" t="s">
@@ -4621,7 +4628,7 @@
         <v>45</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>20</v>
@@ -4635,10 +4642,10 @@
       <c r="K74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="23">
+      <c r="L74" s="21">
         <v>10.6</v>
       </c>
-      <c r="M74" s="23">
+      <c r="M74" s="21">
         <v>24.1</v>
       </c>
       <c r="O74" t="s">
@@ -4665,7 +4672,7 @@
         <v>45</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>20</v>
@@ -4679,10 +4686,10 @@
       <c r="K75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L75" s="23">
+      <c r="L75" s="21">
         <v>10.5</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M75" s="21">
         <v>22.3</v>
       </c>
       <c r="O75" t="s">
@@ -4709,7 +4716,7 @@
         <v>45</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>20</v>
@@ -4723,10 +4730,10 @@
       <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="23">
+      <c r="L76" s="21">
         <v>10.6</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M76" s="21">
         <v>22.5</v>
       </c>
       <c r="O76" t="s">
@@ -4753,7 +4760,7 @@
         <v>45</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>20</v>
@@ -4767,10 +4774,10 @@
       <c r="K77" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L77" s="23">
+      <c r="L77" s="21">
         <v>11</v>
       </c>
-      <c r="M77" s="23">
+      <c r="M77" s="21">
         <v>22.7</v>
       </c>
       <c r="O77" t="s">
@@ -4797,7 +4804,7 @@
         <v>45</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>20</v>
@@ -4811,10 +4818,10 @@
       <c r="K79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L79" s="21">
         <v>4.8</v>
       </c>
-      <c r="M79" s="23"/>
+      <c r="M79" s="21"/>
       <c r="O79" t="s">
         <v>75</v>
       </c>
@@ -4839,7 +4846,7 @@
         <v>45</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>20</v>
@@ -4853,8 +4860,8 @@
       <c r="K80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
       <c r="O80" t="s">
         <v>75</v>
       </c>
@@ -4879,7 +4886,7 @@
         <v>45</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>20</v>
@@ -4893,8 +4900,8 @@
       <c r="K81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
       <c r="O81" t="s">
         <v>75</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>20</v>
@@ -4933,10 +4940,10 @@
       <c r="K82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L82" s="23">
+      <c r="L82" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M82" s="23">
+      <c r="M82" s="21">
         <v>21.3</v>
       </c>
       <c r="O82" t="s">
@@ -4963,7 +4970,7 @@
         <v>45</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>20</v>
@@ -4977,10 +4984,10 @@
       <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="23">
+      <c r="L83" s="21">
         <v>7.6</v>
       </c>
-      <c r="M83" s="23">
+      <c r="M83" s="21">
         <v>22.3</v>
       </c>
       <c r="O83" t="s">
@@ -5007,7 +5014,7 @@
         <v>45</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>20</v>
@@ -5021,10 +5028,10 @@
       <c r="K84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="23">
+      <c r="L84" s="21">
         <v>8.4</v>
       </c>
-      <c r="M84" s="23">
+      <c r="M84" s="21">
         <v>22.4</v>
       </c>
       <c r="O84" t="s">
@@ -5051,7 +5058,7 @@
         <v>45</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>20</v>
@@ -5065,10 +5072,10 @@
       <c r="K85" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="23">
+      <c r="L85" s="21">
         <v>10.6</v>
       </c>
-      <c r="M85" s="23">
+      <c r="M85" s="21">
         <v>23.2</v>
       </c>
       <c r="O85" t="s">
@@ -5095,7 +5102,7 @@
         <v>45</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>20</v>
@@ -5109,10 +5116,10 @@
       <c r="K86" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L86" s="23">
+      <c r="L86" s="21">
         <v>11.8</v>
       </c>
-      <c r="M86" s="23">
+      <c r="M86" s="21">
         <v>23.3</v>
       </c>
       <c r="O86" t="s">
@@ -5139,7 +5146,7 @@
         <v>45</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>20</v>
@@ -5153,10 +5160,10 @@
       <c r="K87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="23">
+      <c r="L87" s="21">
         <v>10.8</v>
       </c>
-      <c r="M87" s="23">
+      <c r="M87" s="21">
         <v>23.5</v>
       </c>
       <c r="O87" t="s">
@@ -5183,7 +5190,7 @@
         <v>45</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>20</v>
@@ -5197,10 +5204,10 @@
       <c r="K88" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L88" s="23">
+      <c r="L88" s="21">
         <v>10.4</v>
       </c>
-      <c r="M88" s="23">
+      <c r="M88" s="21">
         <v>23.8</v>
       </c>
       <c r="O88" t="s">
@@ -5227,7 +5234,7 @@
         <v>45</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>20</v>
@@ -5241,10 +5248,10 @@
       <c r="K90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L90" s="23">
+      <c r="L90" s="21">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M90" s="23"/>
+      <c r="M90" s="21"/>
       <c r="O90" t="s">
         <v>75</v>
       </c>
@@ -5269,7 +5276,7 @@
         <v>45</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>20</v>
@@ -5283,8 +5290,8 @@
       <c r="K91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
       <c r="O91" t="s">
         <v>75</v>
       </c>
@@ -5309,7 +5316,7 @@
         <v>45</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>20</v>
@@ -5323,8 +5330,8 @@
       <c r="K92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
       <c r="O92" t="s">
         <v>75</v>
       </c>
@@ -5349,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>20</v>
@@ -5363,10 +5370,10 @@
       <c r="K93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L93" s="23">
+      <c r="L93" s="21">
         <v>6.7</v>
       </c>
-      <c r="M93" s="23">
+      <c r="M93" s="21">
         <v>23.5</v>
       </c>
       <c r="O93" t="s">
@@ -5393,7 +5400,7 @@
         <v>45</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>20</v>
@@ -5407,10 +5414,10 @@
       <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="23">
+      <c r="L94" s="21">
         <v>7.8</v>
       </c>
-      <c r="M94" s="23">
+      <c r="M94" s="21">
         <v>23.3</v>
       </c>
       <c r="O94" t="s">
@@ -5437,7 +5444,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>20</v>
@@ -5451,10 +5458,10 @@
       <c r="K95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L95" s="23">
+      <c r="L95" s="21">
         <v>9.4</v>
       </c>
-      <c r="M95" s="23">
+      <c r="M95" s="21">
         <v>23.3</v>
       </c>
       <c r="O95" t="s">
@@ -5481,7 +5488,7 @@
         <v>45</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>20</v>
@@ -5495,10 +5502,10 @@
       <c r="K96" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L96" s="23">
+      <c r="L96" s="21">
         <v>9.6</v>
       </c>
-      <c r="M96" s="23">
+      <c r="M96" s="21">
         <v>24.8</v>
       </c>
       <c r="O96" t="s">
@@ -5525,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>20</v>
@@ -5539,10 +5546,10 @@
       <c r="K97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L97" s="23">
+      <c r="L97" s="21">
         <v>12</v>
       </c>
-      <c r="M97" s="23">
+      <c r="M97" s="21">
         <v>23.3</v>
       </c>
       <c r="O97" t="s">
@@ -5569,7 +5576,7 @@
         <v>45</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>20</v>
@@ -5583,10 +5590,10 @@
       <c r="K98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L98" s="23">
+      <c r="L98" s="21">
         <v>9.6</v>
       </c>
-      <c r="M98" s="23">
+      <c r="M98" s="21">
         <v>22.8</v>
       </c>
       <c r="O98" t="s">
@@ -5613,7 +5620,7 @@
         <v>45</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>20</v>
@@ -5627,10 +5634,10 @@
       <c r="K99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L99" s="23">
+      <c r="L99" s="21">
         <v>10.5</v>
       </c>
-      <c r="M99" s="23">
+      <c r="M99" s="21">
         <v>23.2</v>
       </c>
       <c r="O99" t="s">
@@ -5671,10 +5678,10 @@
       <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="23">
+      <c r="L101" s="21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M101" s="23">
+      <c r="M101" s="21">
         <v>23.4</v>
       </c>
       <c r="O101" t="s">
@@ -5715,10 +5722,10 @@
       <c r="K102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L102" s="23">
+      <c r="L102" s="21">
         <v>8.5</v>
       </c>
-      <c r="M102" s="23">
+      <c r="M102" s="21">
         <v>27</v>
       </c>
       <c r="O102" t="s">
@@ -5759,10 +5766,10 @@
       <c r="K103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L103" s="23">
+      <c r="L103" s="21">
         <v>13.5</v>
       </c>
-      <c r="M103" s="23">
+      <c r="M103" s="21">
         <v>40.299999999999997</v>
       </c>
       <c r="O103" t="s">
@@ -5803,10 +5810,10 @@
       <c r="K104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L104" s="23">
+      <c r="L104" s="21">
         <v>15.8</v>
       </c>
-      <c r="M104" s="23">
+      <c r="M104" s="21">
         <v>45</v>
       </c>
       <c r="O104" t="s">
@@ -5847,10 +5854,10 @@
       <c r="K105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L105" s="23">
+      <c r="L105" s="21">
         <v>18.3</v>
       </c>
-      <c r="M105" s="23">
+      <c r="M105" s="21">
         <v>57.9</v>
       </c>
       <c r="O105" t="s">
@@ -5891,10 +5898,10 @@
       <c r="K106" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L106" s="23">
+      <c r="L106" s="21">
         <v>17.7</v>
       </c>
-      <c r="M106" s="23">
+      <c r="M106" s="21">
         <v>56.8</v>
       </c>
       <c r="O106" t="s">
@@ -5935,10 +5942,10 @@
       <c r="K107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L107" s="23">
+      <c r="L107" s="21">
         <v>15.5</v>
       </c>
-      <c r="M107" s="23">
+      <c r="M107" s="21">
         <v>53.8</v>
       </c>
       <c r="O107" t="s">
@@ -5979,10 +5986,10 @@
       <c r="K108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L108" s="23">
+      <c r="L108" s="21">
         <v>18.2</v>
       </c>
-      <c r="M108" s="23">
+      <c r="M108" s="21">
         <v>52.7</v>
       </c>
       <c r="O108" t="s">
@@ -6023,10 +6030,10 @@
       <c r="K109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L109" s="23">
+      <c r="L109" s="21">
         <v>15.5</v>
       </c>
-      <c r="M109" s="23">
+      <c r="M109" s="21">
         <v>51.9</v>
       </c>
       <c r="O109" t="s">
@@ -6067,10 +6074,10 @@
       <c r="K110" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L110" s="23">
+      <c r="L110" s="21">
         <v>18.600000000000001</v>
       </c>
-      <c r="M110" s="23">
+      <c r="M110" s="21">
         <v>54.7</v>
       </c>
       <c r="O110" t="s">
@@ -6111,10 +6118,10 @@
       <c r="K112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L112" s="23">
+      <c r="L112" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M112" s="23">
+      <c r="M112" s="21">
         <v>27</v>
       </c>
       <c r="O112" t="s">
@@ -6155,10 +6162,10 @@
       <c r="K113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L113" s="23">
+      <c r="L113" s="21">
         <v>10.8</v>
       </c>
-      <c r="M113" s="23">
+      <c r="M113" s="21">
         <v>27.3</v>
       </c>
       <c r="O113" t="s">
@@ -6199,10 +6206,10 @@
       <c r="K114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L114" s="23">
+      <c r="L114" s="21">
         <v>14.3</v>
       </c>
-      <c r="M114" s="23">
+      <c r="M114" s="21">
         <v>37.799999999999997</v>
       </c>
       <c r="O114" t="s">
@@ -6243,10 +6250,10 @@
       <c r="K115" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L115" s="23">
+      <c r="L115" s="21">
         <v>15</v>
       </c>
-      <c r="M115" s="23">
+      <c r="M115" s="21">
         <v>47.9</v>
       </c>
       <c r="O115" t="s">
@@ -6287,10 +6294,10 @@
       <c r="K116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L116" s="23">
+      <c r="L116" s="21">
         <v>18</v>
       </c>
-      <c r="M116" s="23">
+      <c r="M116" s="21">
         <v>53</v>
       </c>
       <c r="O116" t="s">
@@ -6331,10 +6338,10 @@
       <c r="K117" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L117" s="23">
+      <c r="L117" s="21">
         <v>15.3</v>
       </c>
-      <c r="M117" s="23">
+      <c r="M117" s="21">
         <v>46.8</v>
       </c>
       <c r="O117" t="s">
@@ -6375,10 +6382,10 @@
       <c r="K118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L118" s="23">
+      <c r="L118" s="21">
         <v>18.399999999999999</v>
       </c>
-      <c r="M118" s="23">
+      <c r="M118" s="21">
         <v>54.7</v>
       </c>
       <c r="O118" t="s">
@@ -6419,10 +6426,10 @@
       <c r="K119" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L119" s="23">
+      <c r="L119" s="21">
         <v>16.399999999999999</v>
       </c>
-      <c r="M119" s="23">
+      <c r="M119" s="21">
         <v>52.1</v>
       </c>
       <c r="O119" t="s">
@@ -6463,10 +6470,10 @@
       <c r="K120" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L120" s="23">
+      <c r="L120" s="21">
         <v>17.5</v>
       </c>
-      <c r="M120" s="23">
+      <c r="M120" s="21">
         <v>53.3</v>
       </c>
       <c r="O120" t="s">
@@ -6507,10 +6514,10 @@
       <c r="K121" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L121" s="23">
+      <c r="L121" s="21">
         <v>17.3</v>
       </c>
-      <c r="M121" s="23">
+      <c r="M121" s="21">
         <v>54.4</v>
       </c>
       <c r="O121" t="s">
@@ -6551,10 +6558,10 @@
       <c r="K123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L123" s="23">
+      <c r="L123" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M123" s="23">
+      <c r="M123" s="21">
         <v>23.5</v>
       </c>
       <c r="O123" t="s">
@@ -6595,10 +6602,10 @@
       <c r="K124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L124" s="23">
+      <c r="L124" s="21">
         <v>14.6</v>
       </c>
-      <c r="M124" s="23">
+      <c r="M124" s="21">
         <v>31</v>
       </c>
       <c r="O124" t="s">
@@ -6639,10 +6646,10 @@
       <c r="K125" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L125" s="23">
+      <c r="L125" s="21">
         <v>14.8</v>
       </c>
-      <c r="M125" s="23">
+      <c r="M125" s="21">
         <v>44.5</v>
       </c>
       <c r="O125" t="s">
@@ -6683,10 +6690,10 @@
       <c r="K126" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L126" s="23">
+      <c r="L126" s="21">
         <v>16.8</v>
       </c>
-      <c r="M126" s="23">
+      <c r="M126" s="21">
         <v>47</v>
       </c>
       <c r="O126" t="s">
@@ -6727,10 +6734,10 @@
       <c r="K127" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L127" s="23">
+      <c r="L127" s="21">
         <v>15.8</v>
       </c>
-      <c r="M127" s="23">
+      <c r="M127" s="21">
         <v>57.5</v>
       </c>
       <c r="O127" t="s">
@@ -6771,10 +6778,10 @@
       <c r="K128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L128" s="23">
+      <c r="L128" s="21">
         <v>15.8</v>
       </c>
-      <c r="M128" s="23">
+      <c r="M128" s="21">
         <v>57.9</v>
       </c>
       <c r="O128" t="s">
@@ -6815,10 +6822,10 @@
       <c r="K129" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L129" s="23">
+      <c r="L129" s="21">
         <v>18</v>
       </c>
-      <c r="M129" s="23">
+      <c r="M129" s="21">
         <v>50.4</v>
       </c>
       <c r="O129" t="s">
@@ -6859,10 +6866,10 @@
       <c r="K130" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L130" s="23">
+      <c r="L130" s="21">
         <v>15.7</v>
       </c>
-      <c r="M130" s="23">
+      <c r="M130" s="21">
         <v>53.1</v>
       </c>
       <c r="O130" t="s">
@@ -6903,10 +6910,10 @@
       <c r="K131" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L131" s="23">
+      <c r="L131" s="21">
         <v>14.9</v>
       </c>
-      <c r="M131" s="23">
+      <c r="M131" s="21">
         <v>53.6</v>
       </c>
       <c r="O131" t="s">
@@ -6947,10 +6954,10 @@
       <c r="K132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L132" s="23">
+      <c r="L132" s="21">
         <v>18.5</v>
       </c>
-      <c r="M132" s="23">
+      <c r="M132" s="21">
         <v>52.6</v>
       </c>
       <c r="O132" t="s">
@@ -10194,7 +10201,7 @@
       <c r="L211" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M211" s="24">
+      <c r="M211">
         <v>55</v>
       </c>
       <c r="N211" s="3" t="s">
@@ -10241,7 +10248,7 @@
       <c r="L213" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M213" s="24">
+      <c r="M213">
         <v>50</v>
       </c>
       <c r="N213" s="3" t="s">
@@ -10288,7 +10295,7 @@
       <c r="L215" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M215" s="25">
+      <c r="M215" s="20">
         <v>40</v>
       </c>
       <c r="N215" s="18" t="s">
@@ -10335,7 +10342,7 @@
       <c r="L217" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="M217" s="25">
+      <c r="M217" s="20">
         <v>40</v>
       </c>
       <c r="N217" s="18" t="s">
@@ -10382,7 +10389,7 @@
       <c r="L219" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M219" s="24">
+      <c r="M219">
         <v>55</v>
       </c>
       <c r="N219" s="3" t="s">
@@ -10429,7 +10436,7 @@
       <c r="L221" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M221" s="24">
+      <c r="M221">
         <v>50</v>
       </c>
       <c r="N221" s="3" t="s">
@@ -10476,7 +10483,7 @@
       <c r="L223" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M223" s="24">
+      <c r="M223">
         <v>40</v>
       </c>
       <c r="N223" s="3" t="s">
@@ -10523,7 +10530,7 @@
       <c r="L225" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M225" s="24">
+      <c r="M225">
         <v>40</v>
       </c>
       <c r="N225" s="3" t="s">
@@ -10561,13 +10568,13 @@
           <x14:formula1>
             <xm:f>'Data Validation'!$D$4:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G35:G66 G90:G99 G68:G77 G79:G88 F2:F214 F216 F218:F1048576</xm:sqref>
+          <xm:sqref>F218:F1048576 F216 G56 G45 F2:F214</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="Seems like you selected an unlisted waveform, did you make a typo or do we need to expand the list?" promptTitle="Select Waveform" xr:uid="{82DB6A83-068A-FD41-A020-75D156C5BCB7}">
           <x14:formula1>
             <xm:f>'Data Validation'!$B$4:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G34 G67 G78 G89 G100:G214 G216 G218:G1048576</xm:sqref>
+          <xm:sqref>G1:G44 G57:G214 G216 G218:G1048576 G46:G55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/raw/dr_db.xlsx
+++ b/data/raw/dr_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/Dose_Response/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A9D763-646C-8841-8E77-1022F69A55A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1711767-DDE1-354E-B35E-771834AB2DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="760" windowWidth="32460" windowHeight="19880" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20060" windowHeight="19820" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -209,9 +209,6 @@
     <t>There are multiple applications per distinct lesion, this is the ID for each lesion</t>
   </si>
   <si>
-    <t>This is the number of applications administered at each distinct lesion</t>
-  </si>
-  <si>
     <t>Input voltage in kV</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>n_train_rep</t>
   </si>
   <si>
-    <t>Number of repetitions of pulse train per application. Ex: The 20x5 sequence is 20 pulses, a pause, then 20 more pulses for a sum of 5 times. Thus, n_train_rep is 5.</t>
-  </si>
-  <si>
     <t>Number of bipolar applications in a pulse train. For pure bipolar, this is number of sum of stimuli in the pulse seq. For Fast Switch, there will be both uni and bipolar within an application, this is how we keep track of that.</t>
   </si>
   <si>
@@ -344,25 +338,94 @@
     <t>POTATO TESTING AUGUST 2 2024-ryan</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>On 8/8/24, we discovered that the fast-switch wasn't working and these were actually just bipolar pulses</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3x1x1</t>
+  </si>
+  <si>
+    <t>3x3x1</t>
+  </si>
+  <si>
+    <t>3x6x1</t>
+  </si>
+  <si>
+    <t>3x12x1</t>
+  </si>
+  <si>
+    <t>3x12x2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>unipolar-3x12x3-08_02_2024</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Number of pulse train in an application. Ex: The 20x5 sequence is 20 pulses, a pause, then 20 more pulses for a sum of 5 times. Thus, n_train_rep is 5.</t>
+  </si>
+  <si>
+    <t>This is the number of repetitions administered at each distinct lesion</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -453,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -480,12 +543,16 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,7 +643,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -644,8 +711,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}" name="Table6" displayName="Table6" ref="A1:O550" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:O550" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}" name="Table6" displayName="Table6" ref="A1:O524" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:O524" xr:uid="{C9C62E17-8105-DF4F-AC28-16C45D5B4FE7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -717,8 +784,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8B2FD8B-38A7-2C44-947C-FAC320928210}" name="Table24" displayName="Table24" ref="D3:D10" totalsRowShown="0">
-  <autoFilter ref="D3:D10" xr:uid="{F8B2FD8B-38A7-2C44-947C-FAC320928210}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8B2FD8B-38A7-2C44-947C-FAC320928210}" name="Table24" displayName="Table24" ref="D3:D18" totalsRowShown="0">
+  <autoFilter ref="D3:D18" xr:uid="{F8B2FD8B-38A7-2C44-947C-FAC320928210}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{780F2998-F02F-6446-9166-EE33F18E8395}" name="Current Pulse Sequences (DO NOT ERASE/MOVE OR OTHER SHEETS BREAK)"/>
   </tableColumns>
@@ -1055,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56265552-5F8B-5640-AFF4-B9B334353120}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A7" zoomScale="156" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,87 +1149,87 @@
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="F4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="F5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -1282,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -1315,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -1328,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -1342,7 +1409,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -1356,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -1372,7 +1439,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -1389,7 +1456,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -1407,15 +1474,15 @@
         <v>44</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -1423,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S34" s="13"/>
     </row>
@@ -1432,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S35" s="13"/>
     </row>
@@ -1441,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -1449,22 +1516,22 @@
         <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -1472,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
@@ -1480,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -1495,20 +1562,20 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1535,11 +1602,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5BF2D-E5D2-C74E-BDAA-5F5BFA9E62BE}">
-  <dimension ref="A1:W225"/>
+  <dimension ref="A1:W239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N240" sqref="N240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1621,7 @@
     <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="24" customWidth="1"/>
     <col min="13" max="13" width="7.83203125" style="16" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="3"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
@@ -1593,9 +1660,9 @@
         <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1636,7 +1703,7 @@
         <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>53</v>
@@ -1644,7 +1711,7 @@
       <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="M2" s="15">
@@ -1681,7 +1748,7 @@
         <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>53</v>
@@ -1689,7 +1756,7 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="23">
         <v>4.5</v>
       </c>
       <c r="M3" s="15">
@@ -1725,7 +1792,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>53</v>
@@ -1733,7 +1800,7 @@
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="23">
         <v>5.0999999999999996</v>
       </c>
       <c r="M4" s="15">
@@ -1769,7 +1836,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>53</v>
@@ -1777,7 +1844,7 @@
       <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="23">
         <v>4.9000000000000004</v>
       </c>
       <c r="M5" s="15">
@@ -1813,7 +1880,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>53</v>
@@ -1821,7 +1888,7 @@
       <c r="K6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="M6" s="15">
@@ -1857,7 +1924,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>53</v>
@@ -1865,7 +1932,7 @@
       <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="23">
         <v>4.5999999999999996</v>
       </c>
       <c r="M7" s="15">
@@ -1901,7 +1968,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>53</v>
@@ -1909,7 +1976,7 @@
       <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="23">
         <v>5.9</v>
       </c>
       <c r="M8" s="15">
@@ -1945,7 +2012,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>53</v>
@@ -1953,7 +2020,7 @@
       <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="23">
         <v>6.2</v>
       </c>
       <c r="M9" s="15">
@@ -1989,7 +2056,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>53</v>
@@ -1997,7 +2064,7 @@
       <c r="K10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="23">
         <v>5.6</v>
       </c>
       <c r="M10" s="15">
@@ -2033,7 +2100,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>53</v>
@@ -2041,7 +2108,7 @@
       <c r="K11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="23">
         <v>5.9</v>
       </c>
       <c r="M11" s="15">
@@ -2077,7 +2144,7 @@
         <v>53</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>53</v>
@@ -2085,7 +2152,7 @@
       <c r="K13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="23">
         <v>4.8</v>
       </c>
       <c r="M13" s="15">
@@ -2121,7 +2188,7 @@
         <v>53</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>53</v>
@@ -2129,7 +2196,7 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="23">
         <v>5.2</v>
       </c>
       <c r="M14" s="15">
@@ -2165,7 +2232,7 @@
         <v>53</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>53</v>
@@ -2173,7 +2240,7 @@
       <c r="K15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="23">
         <v>4.2</v>
       </c>
       <c r="M15" s="15">
@@ -2209,7 +2276,7 @@
         <v>53</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>53</v>
@@ -2217,7 +2284,7 @@
       <c r="K16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="23">
         <v>5</v>
       </c>
       <c r="M16" s="15">
@@ -2253,7 +2320,7 @@
         <v>53</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>53</v>
@@ -2261,7 +2328,7 @@
       <c r="K17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="23">
         <v>5.4</v>
       </c>
       <c r="M17" s="15">
@@ -2297,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>53</v>
@@ -2305,7 +2372,7 @@
       <c r="K18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="23">
         <v>5.0999999999999996</v>
       </c>
       <c r="M18" s="15">
@@ -2341,7 +2408,7 @@
         <v>53</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>53</v>
@@ -2349,7 +2416,7 @@
       <c r="K19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="23">
         <v>6</v>
       </c>
       <c r="M19" s="15">
@@ -2385,7 +2452,7 @@
         <v>53</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>53</v>
@@ -2393,7 +2460,7 @@
       <c r="K20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="23">
         <v>6.2</v>
       </c>
       <c r="M20" s="15">
@@ -2429,7 +2496,7 @@
         <v>53</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>53</v>
@@ -2437,7 +2504,7 @@
       <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="23">
         <v>5.6</v>
       </c>
       <c r="M21" s="15">
@@ -2473,7 +2540,7 @@
         <v>53</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>53</v>
@@ -2481,7 +2548,7 @@
       <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="23">
         <v>6</v>
       </c>
       <c r="M22" s="15">
@@ -2517,7 +2584,7 @@
         <v>53</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>53</v>
@@ -2525,7 +2592,7 @@
       <c r="K24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="23">
         <v>4</v>
       </c>
       <c r="M24" s="15">
@@ -2561,7 +2628,7 @@
         <v>53</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>53</v>
@@ -2569,7 +2636,7 @@
       <c r="K25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="23">
         <v>5.0999999999999996</v>
       </c>
       <c r="M25" s="15">
@@ -2605,7 +2672,7 @@
         <v>53</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>53</v>
@@ -2613,7 +2680,7 @@
       <c r="K26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="23">
         <v>4.9000000000000004</v>
       </c>
       <c r="M26" s="15">
@@ -2649,7 +2716,7 @@
         <v>53</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>53</v>
@@ -2657,7 +2724,7 @@
       <c r="K27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="23">
         <v>5.8</v>
       </c>
       <c r="M27" s="15">
@@ -2693,7 +2760,7 @@
         <v>53</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>53</v>
@@ -2701,7 +2768,7 @@
       <c r="K28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="23">
         <v>5.3</v>
       </c>
       <c r="M28" s="15">
@@ -2737,7 +2804,7 @@
         <v>53</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>53</v>
@@ -2745,7 +2812,7 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="23">
         <v>5.2</v>
       </c>
       <c r="M29" s="15">
@@ -2781,7 +2848,7 @@
         <v>53</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>53</v>
@@ -2789,7 +2856,7 @@
       <c r="K30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="23">
         <v>6.1</v>
       </c>
       <c r="M30" s="15">
@@ -2825,7 +2892,7 @@
         <v>53</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>53</v>
@@ -2833,7 +2900,7 @@
       <c r="K31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="23">
         <v>5.3</v>
       </c>
       <c r="M31" s="15">
@@ -2869,7 +2936,7 @@
         <v>53</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>53</v>
@@ -2877,7 +2944,7 @@
       <c r="K32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="23">
         <v>6</v>
       </c>
       <c r="M32" s="15">
@@ -2913,7 +2980,7 @@
         <v>53</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>53</v>
@@ -2921,7 +2988,7 @@
       <c r="K33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="23">
         <v>6</v>
       </c>
       <c r="M33" s="15">
@@ -2965,7 +3032,7 @@
       <c r="K35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="23">
         <v>4</v>
       </c>
       <c r="M35" s="15">
@@ -3016,7 +3083,7 @@
       <c r="K36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="23">
         <v>3.5</v>
       </c>
       <c r="M36" s="15">
@@ -3067,7 +3134,7 @@
       <c r="K37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="23">
         <v>3.9</v>
       </c>
       <c r="M37" s="15">
@@ -3118,7 +3185,7 @@
       <c r="K38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="23">
         <v>3.9</v>
       </c>
       <c r="M38" s="15">
@@ -3169,7 +3236,7 @@
       <c r="K39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="23">
         <v>3.7</v>
       </c>
       <c r="M39" s="15">
@@ -3220,7 +3287,7 @@
       <c r="K40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="23">
         <v>4.3</v>
       </c>
       <c r="M40" s="15">
@@ -3271,7 +3338,7 @@
       <c r="K41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="23">
         <v>3.4</v>
       </c>
       <c r="M41" s="15">
@@ -3322,7 +3389,7 @@
       <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="23">
         <v>4</v>
       </c>
       <c r="M42" s="15">
@@ -3373,7 +3440,7 @@
       <c r="K43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="23">
         <v>2</v>
       </c>
       <c r="M43" s="15">
@@ -3424,7 +3491,7 @@
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="23">
         <v>2.7</v>
       </c>
       <c r="M44" s="15">
@@ -3484,7 +3551,7 @@
       <c r="K46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="23">
         <v>4</v>
       </c>
       <c r="M46" s="15">
@@ -3535,7 +3602,7 @@
       <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="23">
         <v>3.6</v>
       </c>
       <c r="M47" s="15">
@@ -3586,7 +3653,7 @@
       <c r="K48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="23">
         <v>3.8</v>
       </c>
       <c r="M48" s="15">
@@ -3630,7 +3697,7 @@
       <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="23">
         <v>3.4</v>
       </c>
       <c r="M49" s="15">
@@ -3674,7 +3741,7 @@
       <c r="K50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="23">
         <v>3.8</v>
       </c>
       <c r="M50" s="15">
@@ -3718,7 +3785,7 @@
       <c r="K51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="23">
         <v>3.4</v>
       </c>
       <c r="M51" s="15">
@@ -3762,7 +3829,7 @@
       <c r="K52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="23">
         <v>4</v>
       </c>
       <c r="M52" s="15">
@@ -3806,7 +3873,7 @@
       <c r="K53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="23">
         <v>3</v>
       </c>
       <c r="M53" s="15">
@@ -3850,7 +3917,7 @@
       <c r="K54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="23">
         <v>2.1</v>
       </c>
       <c r="M54" s="15">
@@ -3894,7 +3961,7 @@
       <c r="K55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="23">
         <v>3.7</v>
       </c>
       <c r="M55" s="15">
@@ -3938,7 +4005,7 @@
       <c r="K57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="23">
         <v>3.9</v>
       </c>
       <c r="M57" s="15">
@@ -3982,7 +4049,7 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L58" s="23">
         <v>3.9</v>
       </c>
       <c r="M58" s="15">
@@ -4026,7 +4093,7 @@
       <c r="K59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="23">
         <v>3.3</v>
       </c>
       <c r="M59" s="15">
@@ -4070,7 +4137,7 @@
       <c r="K60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="M60" s="15">
@@ -4114,7 +4181,7 @@
       <c r="K61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="23">
         <v>3.4</v>
       </c>
       <c r="M61" s="15">
@@ -4158,7 +4225,7 @@
       <c r="K62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="23">
         <v>4</v>
       </c>
       <c r="M62" s="15">
@@ -4202,7 +4269,7 @@
       <c r="K63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="23">
         <v>2.5</v>
       </c>
       <c r="M63" s="15">
@@ -4246,7 +4313,7 @@
       <c r="K64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="23">
         <v>3</v>
       </c>
       <c r="M64" s="15">
@@ -4290,7 +4357,7 @@
       <c r="K65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L65" s="23">
         <v>2</v>
       </c>
       <c r="M65" s="15">
@@ -4334,7 +4401,7 @@
       <c r="K66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="23">
         <v>3</v>
       </c>
       <c r="M66" s="15">
@@ -4378,14 +4445,14 @@
       <c r="K68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L68" s="21">
+      <c r="L68" s="22">
         <v>5.0999999999999996</v>
       </c>
       <c r="M68" s="21">
         <v>16.75</v>
       </c>
       <c r="O68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -4422,14 +4489,14 @@
       <c r="K69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L69" s="22">
         <v>5.85</v>
       </c>
       <c r="M69" s="21">
         <v>17.52</v>
       </c>
       <c r="O69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -4466,14 +4533,14 @@
       <c r="K70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L70" s="21">
+      <c r="L70" s="22">
         <v>6.65</v>
       </c>
       <c r="M70" s="21">
         <v>20.83</v>
       </c>
       <c r="O70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -4510,14 +4577,14 @@
       <c r="K71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L71" s="22">
         <v>9.3000000000000007</v>
       </c>
       <c r="M71" s="21">
         <v>22.2</v>
       </c>
       <c r="O71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -4554,14 +4621,14 @@
       <c r="K72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L72" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="M72" s="21">
         <v>25.1</v>
       </c>
       <c r="O72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -4598,14 +4665,14 @@
       <c r="K73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L73" s="22">
         <v>8.4</v>
       </c>
       <c r="M73" s="21">
         <v>22</v>
       </c>
       <c r="O73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -4642,14 +4709,14 @@
       <c r="K74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="21">
+      <c r="L74" s="22">
         <v>10.6</v>
       </c>
       <c r="M74" s="21">
         <v>24.1</v>
       </c>
       <c r="O74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -4686,14 +4753,14 @@
       <c r="K75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L75" s="21">
+      <c r="L75" s="22">
         <v>10.5</v>
       </c>
       <c r="M75" s="21">
         <v>22.3</v>
       </c>
       <c r="O75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -4730,14 +4797,14 @@
       <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="21">
+      <c r="L76" s="22">
         <v>10.6</v>
       </c>
       <c r="M76" s="21">
         <v>22.5</v>
       </c>
       <c r="O76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -4774,14 +4841,14 @@
       <c r="K77" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L77" s="22">
         <v>11</v>
       </c>
       <c r="M77" s="21">
         <v>22.7</v>
       </c>
       <c r="O77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -4818,12 +4885,12 @@
       <c r="K79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L79" s="22">
         <v>4.8</v>
       </c>
       <c r="M79" s="21"/>
       <c r="O79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4860,10 +4927,10 @@
       <c r="K80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="21"/>
+      <c r="L80" s="22"/>
       <c r="M80" s="21"/>
       <c r="O80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -4900,10 +4967,10 @@
       <c r="K81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="21"/>
+      <c r="L81" s="22"/>
       <c r="M81" s="21"/>
       <c r="O81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -4940,14 +5007,14 @@
       <c r="K82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L82" s="21">
+      <c r="L82" s="22">
         <v>8.3000000000000007</v>
       </c>
       <c r="M82" s="21">
         <v>21.3</v>
       </c>
       <c r="O82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -4984,14 +5051,14 @@
       <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L83" s="22">
         <v>7.6</v>
       </c>
       <c r="M83" s="21">
         <v>22.3</v>
       </c>
       <c r="O83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -5028,14 +5095,14 @@
       <c r="K84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L84" s="22">
         <v>8.4</v>
       </c>
       <c r="M84" s="21">
         <v>22.4</v>
       </c>
       <c r="O84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -5072,14 +5139,14 @@
       <c r="K85" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L85" s="22">
         <v>10.6</v>
       </c>
       <c r="M85" s="21">
         <v>23.2</v>
       </c>
       <c r="O85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -5116,14 +5183,14 @@
       <c r="K86" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L86" s="22">
         <v>11.8</v>
       </c>
       <c r="M86" s="21">
         <v>23.3</v>
       </c>
       <c r="O86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -5160,14 +5227,14 @@
       <c r="K87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="21">
+      <c r="L87" s="22">
         <v>10.8</v>
       </c>
       <c r="M87" s="21">
         <v>23.5</v>
       </c>
       <c r="O87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -5204,14 +5271,14 @@
       <c r="K88" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L88" s="21">
+      <c r="L88" s="22">
         <v>10.4</v>
       </c>
       <c r="M88" s="21">
         <v>23.8</v>
       </c>
       <c r="O88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -5248,12 +5315,12 @@
       <c r="K90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L90" s="21">
+      <c r="L90" s="22">
         <v>4.9000000000000004</v>
       </c>
       <c r="M90" s="21"/>
       <c r="O90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -5290,10 +5357,10 @@
       <c r="K91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L91" s="21"/>
+      <c r="L91" s="22"/>
       <c r="M91" s="21"/>
       <c r="O91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -5330,10 +5397,10 @@
       <c r="K92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L92" s="21"/>
+      <c r="L92" s="22"/>
       <c r="M92" s="21"/>
       <c r="O92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -5370,14 +5437,14 @@
       <c r="K93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L93" s="21">
+      <c r="L93" s="22">
         <v>6.7</v>
       </c>
       <c r="M93" s="21">
         <v>23.5</v>
       </c>
       <c r="O93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -5414,14 +5481,14 @@
       <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="21">
+      <c r="L94" s="22">
         <v>7.8</v>
       </c>
       <c r="M94" s="21">
         <v>23.3</v>
       </c>
       <c r="O94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -5458,14 +5525,14 @@
       <c r="K95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L95" s="21">
+      <c r="L95" s="22">
         <v>9.4</v>
       </c>
       <c r="M95" s="21">
         <v>23.3</v>
       </c>
       <c r="O95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -5502,14 +5569,14 @@
       <c r="K96" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L96" s="21">
+      <c r="L96" s="22">
         <v>9.6</v>
       </c>
       <c r="M96" s="21">
         <v>24.8</v>
       </c>
       <c r="O96" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -5546,14 +5613,14 @@
       <c r="K97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L97" s="21">
+      <c r="L97" s="22">
         <v>12</v>
       </c>
       <c r="M97" s="21">
         <v>23.3</v>
       </c>
       <c r="O97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -5590,14 +5657,14 @@
       <c r="K98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L98" s="21">
+      <c r="L98" s="22">
         <v>9.6</v>
       </c>
       <c r="M98" s="21">
         <v>22.8</v>
       </c>
       <c r="O98" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -5634,14 +5701,14 @@
       <c r="K99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L99" s="21">
+      <c r="L99" s="22">
         <v>10.5</v>
       </c>
       <c r="M99" s="21">
         <v>23.2</v>
       </c>
       <c r="O99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -5658,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>41</v>
@@ -5667,7 +5734,7 @@
         <v>38</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>53</v>
@@ -5678,14 +5745,14 @@
       <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="21">
+      <c r="L101" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="M101" s="21">
         <v>23.4</v>
       </c>
       <c r="O101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -5702,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>41</v>
@@ -5711,7 +5778,7 @@
         <v>38</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>53</v>
@@ -5722,14 +5789,14 @@
       <c r="K102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L102" s="21">
+      <c r="L102" s="22">
         <v>8.5</v>
       </c>
       <c r="M102" s="21">
         <v>27</v>
       </c>
       <c r="O102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -5746,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>41</v>
@@ -5755,7 +5822,7 @@
         <v>38</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>53</v>
@@ -5766,14 +5833,14 @@
       <c r="K103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L103" s="21">
+      <c r="L103" s="22">
         <v>13.5</v>
       </c>
       <c r="M103" s="21">
         <v>40.299999999999997</v>
       </c>
       <c r="O103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -5790,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>41</v>
@@ -5799,7 +5866,7 @@
         <v>38</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>53</v>
@@ -5810,14 +5877,14 @@
       <c r="K104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L104" s="21">
+      <c r="L104" s="22">
         <v>15.8</v>
       </c>
       <c r="M104" s="21">
         <v>45</v>
       </c>
       <c r="O104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -5834,7 +5901,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>41</v>
@@ -5843,7 +5910,7 @@
         <v>38</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>53</v>
@@ -5854,14 +5921,14 @@
       <c r="K105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L105" s="21">
+      <c r="L105" s="22">
         <v>18.3</v>
       </c>
       <c r="M105" s="21">
         <v>57.9</v>
       </c>
       <c r="O105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -5878,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>41</v>
@@ -5887,7 +5954,7 @@
         <v>38</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>53</v>
@@ -5898,14 +5965,14 @@
       <c r="K106" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L106" s="21">
+      <c r="L106" s="22">
         <v>17.7</v>
       </c>
       <c r="M106" s="21">
         <v>56.8</v>
       </c>
       <c r="O106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -5922,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>41</v>
@@ -5931,7 +5998,7 @@
         <v>38</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>53</v>
@@ -5942,14 +6009,14 @@
       <c r="K107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L107" s="21">
+      <c r="L107" s="22">
         <v>15.5</v>
       </c>
       <c r="M107" s="21">
         <v>53.8</v>
       </c>
       <c r="O107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -5966,7 +6033,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>41</v>
@@ -5975,7 +6042,7 @@
         <v>38</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>53</v>
@@ -5986,14 +6053,14 @@
       <c r="K108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L108" s="21">
+      <c r="L108" s="22">
         <v>18.2</v>
       </c>
       <c r="M108" s="21">
         <v>52.7</v>
       </c>
       <c r="O108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
@@ -6010,7 +6077,7 @@
         <v>9</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>41</v>
@@ -6019,7 +6086,7 @@
         <v>38</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>53</v>
@@ -6030,14 +6097,14 @@
       <c r="K109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L109" s="21">
+      <c r="L109" s="22">
         <v>15.5</v>
       </c>
       <c r="M109" s="21">
         <v>51.9</v>
       </c>
       <c r="O109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -6054,7 +6121,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>41</v>
@@ -6063,7 +6130,7 @@
         <v>38</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>53</v>
@@ -6074,19 +6141,19 @@
       <c r="K110" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L110" s="21">
+      <c r="L110" s="22">
         <v>18.600000000000001</v>
       </c>
       <c r="M110" s="21">
         <v>54.7</v>
       </c>
       <c r="O110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>48</v>
@@ -6098,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>41</v>
@@ -6107,7 +6174,7 @@
         <v>38</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>53</v>
@@ -6118,19 +6185,19 @@
       <c r="K112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L112" s="21">
+      <c r="L112" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="M112" s="21">
         <v>27</v>
       </c>
       <c r="O112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>48</v>
@@ -6142,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>41</v>
@@ -6151,7 +6218,7 @@
         <v>38</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>53</v>
@@ -6162,19 +6229,19 @@
       <c r="K113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L113" s="21">
+      <c r="L113" s="22">
         <v>10.8</v>
       </c>
       <c r="M113" s="21">
         <v>27.3</v>
       </c>
       <c r="O113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>48</v>
@@ -6186,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>41</v>
@@ -6195,7 +6262,7 @@
         <v>38</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>53</v>
@@ -6206,19 +6273,19 @@
       <c r="K114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L114" s="21">
+      <c r="L114" s="22">
         <v>14.3</v>
       </c>
       <c r="M114" s="21">
         <v>37.799999999999997</v>
       </c>
       <c r="O114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>48</v>
@@ -6230,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>41</v>
@@ -6239,7 +6306,7 @@
         <v>38</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>53</v>
@@ -6250,19 +6317,19 @@
       <c r="K115" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L115" s="21">
+      <c r="L115" s="22">
         <v>15</v>
       </c>
       <c r="M115" s="21">
         <v>47.9</v>
       </c>
       <c r="O115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>48</v>
@@ -6274,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>41</v>
@@ -6283,7 +6350,7 @@
         <v>38</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>53</v>
@@ -6294,19 +6361,19 @@
       <c r="K116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L116" s="21">
+      <c r="L116" s="22">
         <v>18</v>
       </c>
       <c r="M116" s="21">
         <v>53</v>
       </c>
       <c r="O116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>48</v>
@@ -6318,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>41</v>
@@ -6327,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>53</v>
@@ -6338,19 +6405,19 @@
       <c r="K117" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L117" s="21">
+      <c r="L117" s="22">
         <v>15.3</v>
       </c>
       <c r="M117" s="21">
         <v>46.8</v>
       </c>
       <c r="O117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>48</v>
@@ -6362,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>41</v>
@@ -6371,7 +6438,7 @@
         <v>38</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>53</v>
@@ -6382,19 +6449,19 @@
       <c r="K118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L118" s="21">
+      <c r="L118" s="22">
         <v>18.399999999999999</v>
       </c>
       <c r="M118" s="21">
         <v>54.7</v>
       </c>
       <c r="O118" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>48</v>
@@ -6406,7 +6473,7 @@
         <v>8</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>41</v>
@@ -6415,7 +6482,7 @@
         <v>38</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>53</v>
@@ -6426,19 +6493,19 @@
       <c r="K119" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L119" s="21">
+      <c r="L119" s="22">
         <v>16.399999999999999</v>
       </c>
       <c r="M119" s="21">
         <v>52.1</v>
       </c>
       <c r="O119" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>48</v>
@@ -6450,7 +6517,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>41</v>
@@ -6459,7 +6526,7 @@
         <v>38</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>53</v>
@@ -6470,19 +6537,19 @@
       <c r="K120" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L120" s="21">
+      <c r="L120" s="22">
         <v>17.5</v>
       </c>
       <c r="M120" s="21">
         <v>53.3</v>
       </c>
       <c r="O120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>48</v>
@@ -6494,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>41</v>
@@ -6503,7 +6570,7 @@
         <v>38</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>53</v>
@@ -6514,19 +6581,19 @@
       <c r="K121" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L121" s="21">
+      <c r="L121" s="22">
         <v>17.3</v>
       </c>
       <c r="M121" s="21">
         <v>54.4</v>
       </c>
       <c r="O121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>48</v>
@@ -6538,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>41</v>
@@ -6547,7 +6614,7 @@
         <v>38</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>53</v>
@@ -6558,19 +6625,19 @@
       <c r="K123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L123" s="21">
+      <c r="L123" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="M123" s="21">
         <v>23.5</v>
       </c>
       <c r="O123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>48</v>
@@ -6582,7 +6649,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>41</v>
@@ -6591,7 +6658,7 @@
         <v>38</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>53</v>
@@ -6602,19 +6669,19 @@
       <c r="K124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L124" s="21">
+      <c r="L124" s="22">
         <v>14.6</v>
       </c>
       <c r="M124" s="21">
         <v>31</v>
       </c>
       <c r="O124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>48</v>
@@ -6626,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>41</v>
@@ -6635,7 +6702,7 @@
         <v>38</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>53</v>
@@ -6646,19 +6713,19 @@
       <c r="K125" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L125" s="21">
+      <c r="L125" s="22">
         <v>14.8</v>
       </c>
       <c r="M125" s="21">
         <v>44.5</v>
       </c>
       <c r="O125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>48</v>
@@ -6670,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>41</v>
@@ -6679,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>53</v>
@@ -6690,19 +6757,19 @@
       <c r="K126" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L126" s="21">
+      <c r="L126" s="22">
         <v>16.8</v>
       </c>
       <c r="M126" s="21">
         <v>47</v>
       </c>
       <c r="O126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>48</v>
@@ -6714,7 +6781,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>41</v>
@@ -6723,7 +6790,7 @@
         <v>38</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>53</v>
@@ -6734,19 +6801,19 @@
       <c r="K127" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L127" s="21">
+      <c r="L127" s="22">
         <v>15.8</v>
       </c>
       <c r="M127" s="21">
         <v>57.5</v>
       </c>
       <c r="O127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>48</v>
@@ -6758,7 +6825,7 @@
         <v>6</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>41</v>
@@ -6767,7 +6834,7 @@
         <v>38</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>53</v>
@@ -6778,19 +6845,19 @@
       <c r="K128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L128" s="21">
+      <c r="L128" s="22">
         <v>15.8</v>
       </c>
       <c r="M128" s="21">
         <v>57.9</v>
       </c>
       <c r="O128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>48</v>
@@ -6802,7 +6869,7 @@
         <v>7</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>41</v>
@@ -6811,7 +6878,7 @@
         <v>38</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>53</v>
@@ -6822,19 +6889,19 @@
       <c r="K129" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L129" s="21">
+      <c r="L129" s="22">
         <v>18</v>
       </c>
       <c r="M129" s="21">
         <v>50.4</v>
       </c>
       <c r="O129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>48</v>
@@ -6846,7 +6913,7 @@
         <v>8</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>41</v>
@@ -6855,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>53</v>
@@ -6866,19 +6933,19 @@
       <c r="K130" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L130" s="21">
+      <c r="L130" s="22">
         <v>15.7</v>
       </c>
       <c r="M130" s="21">
         <v>53.1</v>
       </c>
       <c r="O130" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>48</v>
@@ -6890,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>41</v>
@@ -6899,7 +6966,7 @@
         <v>38</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>53</v>
@@ -6910,19 +6977,19 @@
       <c r="K131" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L131" s="21">
+      <c r="L131" s="22">
         <v>14.9</v>
       </c>
       <c r="M131" s="21">
         <v>53.6</v>
       </c>
       <c r="O131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>48</v>
@@ -6934,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>41</v>
@@ -6943,7 +7010,7 @@
         <v>38</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>53</v>
@@ -6954,19 +7021,19 @@
       <c r="K132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L132" s="21">
+      <c r="L132" s="22">
         <v>18.5</v>
       </c>
       <c r="M132" s="21">
         <v>52.6</v>
       </c>
       <c r="O132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>48</v>
@@ -6978,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>46</v>
@@ -6987,7 +7054,7 @@
         <v>38</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>53</v>
@@ -6998,19 +7065,19 @@
       <c r="K134" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L134" s="15">
+      <c r="L134" s="23">
         <v>9</v>
       </c>
       <c r="M134" s="15">
         <v>26</v>
       </c>
       <c r="O134" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>48</v>
@@ -7022,7 +7089,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>46</v>
@@ -7031,30 +7098,30 @@
         <v>38</v>
       </c>
       <c r="H135" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L135" s="23">
+        <v>10.8</v>
+      </c>
+      <c r="M135" s="15">
+        <v>29</v>
+      </c>
+      <c r="O135" t="s">
         <v>78</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L135" s="15">
-        <v>10.8</v>
-      </c>
-      <c r="M135" s="15">
-        <v>29</v>
-      </c>
-      <c r="O135" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>48</v>
@@ -7066,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>46</v>
@@ -7075,30 +7142,30 @@
         <v>38</v>
       </c>
       <c r="H136" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L136" s="23">
+        <v>9</v>
+      </c>
+      <c r="M136" s="15">
+        <v>29</v>
+      </c>
+      <c r="O136" t="s">
         <v>78</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L136" s="15">
-        <v>9</v>
-      </c>
-      <c r="M136" s="15">
-        <v>29</v>
-      </c>
-      <c r="O136" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>48</v>
@@ -7110,7 +7177,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>46</v>
@@ -7119,7 +7186,7 @@
         <v>38</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>53</v>
@@ -7130,19 +7197,19 @@
       <c r="K137" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L137" s="15">
+      <c r="L137" s="23">
         <v>18</v>
       </c>
       <c r="M137" s="15">
         <v>40</v>
       </c>
       <c r="O137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>48</v>
@@ -7154,7 +7221,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>46</v>
@@ -7163,7 +7230,7 @@
         <v>38</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>53</v>
@@ -7174,19 +7241,19 @@
       <c r="K138" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L138" s="15">
+      <c r="L138" s="23">
         <v>13.5</v>
       </c>
       <c r="M138" s="15">
         <v>40</v>
       </c>
       <c r="O138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>48</v>
@@ -7198,7 +7265,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>46</v>
@@ -7207,7 +7274,7 @@
         <v>38</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>53</v>
@@ -7218,19 +7285,19 @@
       <c r="K139" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L139" s="15">
+      <c r="L139" s="23">
         <v>16</v>
       </c>
       <c r="M139" s="15">
         <v>41</v>
       </c>
       <c r="O139" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>48</v>
@@ -7242,7 +7309,7 @@
         <v>7</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>46</v>
@@ -7251,7 +7318,7 @@
         <v>38</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>53</v>
@@ -7262,19 +7329,19 @@
       <c r="K140" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L140" s="15">
+      <c r="L140" s="23">
         <v>17</v>
       </c>
       <c r="M140" s="15">
         <v>44</v>
       </c>
       <c r="O140" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>48</v>
@@ -7286,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>46</v>
@@ -7295,7 +7362,7 @@
         <v>38</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>53</v>
@@ -7306,19 +7373,19 @@
       <c r="K141" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L141" s="15">
+      <c r="L141" s="23">
         <v>21</v>
       </c>
       <c r="M141" s="15">
         <v>42</v>
       </c>
       <c r="O141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>48</v>
@@ -7330,7 +7397,7 @@
         <v>9</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>46</v>
@@ -7339,7 +7406,7 @@
         <v>38</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>53</v>
@@ -7350,19 +7417,19 @@
       <c r="K142" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L142" s="15">
+      <c r="L142" s="23">
         <v>21</v>
       </c>
       <c r="M142" s="15">
         <v>43</v>
       </c>
       <c r="O142" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>48</v>
@@ -7374,7 +7441,7 @@
         <v>10</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>46</v>
@@ -7383,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>53</v>
@@ -7394,19 +7461,19 @@
       <c r="K143" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L143" s="15">
+      <c r="L143" s="23">
         <v>24</v>
       </c>
       <c r="M143" s="15">
         <v>49</v>
       </c>
       <c r="O143" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>48</v>
@@ -7418,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>46</v>
@@ -7427,7 +7494,7 @@
         <v>38</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>53</v>
@@ -7438,19 +7505,19 @@
       <c r="K145" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L145" s="15">
+      <c r="L145" s="23">
         <v>8.4</v>
       </c>
       <c r="M145" s="15">
         <v>26</v>
       </c>
       <c r="O145" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>48</v>
@@ -7462,7 +7529,7 @@
         <v>2</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>46</v>
@@ -7471,7 +7538,7 @@
         <v>38</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>53</v>
@@ -7482,19 +7549,19 @@
       <c r="K146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L146" s="15">
+      <c r="L146" s="23">
         <v>13</v>
       </c>
       <c r="M146" s="15">
         <v>31</v>
       </c>
       <c r="O146" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>48</v>
@@ -7506,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>46</v>
@@ -7515,7 +7582,7 @@
         <v>38</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>53</v>
@@ -7526,19 +7593,19 @@
       <c r="K147" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L147" s="15">
+      <c r="L147" s="23">
         <v>12.9</v>
       </c>
       <c r="M147" s="15">
         <v>31</v>
       </c>
       <c r="O147" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>48</v>
@@ -7550,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>46</v>
@@ -7559,7 +7626,7 @@
         <v>38</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>53</v>
@@ -7570,19 +7637,19 @@
       <c r="K148" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L148" s="15">
+      <c r="L148" s="23">
         <v>16</v>
       </c>
       <c r="M148" s="15">
         <v>41</v>
       </c>
       <c r="O148" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>48</v>
@@ -7594,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>46</v>
@@ -7603,7 +7670,7 @@
         <v>38</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>53</v>
@@ -7614,19 +7681,19 @@
       <c r="K149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L149" s="15">
+      <c r="L149" s="23">
         <v>15</v>
       </c>
       <c r="M149" s="15">
         <v>43</v>
       </c>
       <c r="O149" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>48</v>
@@ -7638,7 +7705,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>46</v>
@@ -7647,30 +7714,30 @@
         <v>38</v>
       </c>
       <c r="H150" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L150" s="23">
+        <v>18</v>
+      </c>
+      <c r="M150" s="15">
+        <v>48</v>
+      </c>
+      <c r="O150" t="s">
         <v>78</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L150" s="15">
-        <v>18</v>
-      </c>
-      <c r="M150" s="15">
-        <v>48</v>
-      </c>
-      <c r="O150" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>48</v>
@@ -7682,7 +7749,7 @@
         <v>7</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>46</v>
@@ -7691,7 +7758,7 @@
         <v>38</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>53</v>
@@ -7702,19 +7769,19 @@
       <c r="K151" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L151" s="15">
+      <c r="L151" s="23">
         <v>21</v>
       </c>
       <c r="M151" s="15">
         <v>42</v>
       </c>
       <c r="O151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>48</v>
@@ -7726,7 +7793,7 @@
         <v>8</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>46</v>
@@ -7735,7 +7802,7 @@
         <v>38</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>53</v>
@@ -7746,19 +7813,19 @@
       <c r="K152" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L152" s="15">
+      <c r="L152" s="23">
         <v>21</v>
       </c>
       <c r="M152" s="15">
         <v>49</v>
       </c>
       <c r="O152" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>48</v>
@@ -7770,7 +7837,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>46</v>
@@ -7779,7 +7846,7 @@
         <v>38</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>53</v>
@@ -7790,19 +7857,19 @@
       <c r="K153" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L153" s="15">
+      <c r="L153" s="23">
         <v>21</v>
       </c>
       <c r="M153" s="15">
         <v>45</v>
       </c>
       <c r="O153" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>48</v>
@@ -7814,7 +7881,7 @@
         <v>10</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>46</v>
@@ -7823,30 +7890,30 @@
         <v>38</v>
       </c>
       <c r="H154" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154" s="23">
+        <v>21</v>
+      </c>
+      <c r="M154" s="15">
+        <v>48</v>
+      </c>
+      <c r="O154" t="s">
         <v>78</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L154" s="15">
-        <v>21</v>
-      </c>
-      <c r="M154" s="15">
-        <v>48</v>
-      </c>
-      <c r="O154" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>48</v>
@@ -7858,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>46</v>
@@ -7867,7 +7934,7 @@
         <v>38</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>53</v>
@@ -7878,19 +7945,19 @@
       <c r="K156" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L156" s="15">
+      <c r="L156" s="23">
         <v>8</v>
       </c>
       <c r="M156" s="15">
         <v>27</v>
       </c>
       <c r="O156" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>48</v>
@@ -7902,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>46</v>
@@ -7911,30 +7978,30 @@
         <v>38</v>
       </c>
       <c r="H157" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157" s="23">
+        <v>11.4</v>
+      </c>
+      <c r="M157" s="15">
+        <v>29</v>
+      </c>
+      <c r="O157" t="s">
         <v>78</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L157" s="15">
-        <v>11.4</v>
-      </c>
-      <c r="M157" s="15">
-        <v>29</v>
-      </c>
-      <c r="O157" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>48</v>
@@ -7946,7 +8013,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>46</v>
@@ -7955,7 +8022,7 @@
         <v>38</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>53</v>
@@ -7966,19 +8033,19 @@
       <c r="K158" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L158" s="15">
+      <c r="L158" s="23">
         <v>15</v>
       </c>
       <c r="M158" s="15">
         <v>40</v>
       </c>
       <c r="O158" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>48</v>
@@ -7990,7 +8057,7 @@
         <v>4</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>46</v>
@@ -7999,7 +8066,7 @@
         <v>38</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>53</v>
@@ -8010,19 +8077,19 @@
       <c r="K159" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L159" s="15">
+      <c r="L159" s="23">
         <v>13</v>
       </c>
       <c r="M159" s="15">
         <v>43</v>
       </c>
       <c r="O159" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>48</v>
@@ -8034,7 +8101,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>46</v>
@@ -8043,7 +8110,7 @@
         <v>38</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>53</v>
@@ -8054,19 +8121,19 @@
       <c r="K160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L160" s="15">
+      <c r="L160" s="23">
         <v>14</v>
       </c>
       <c r="M160" s="15">
         <v>41</v>
       </c>
       <c r="O160" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>48</v>
@@ -8078,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>46</v>
@@ -8087,7 +8154,7 @@
         <v>38</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>53</v>
@@ -8098,19 +8165,19 @@
       <c r="K161" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L161" s="15">
+      <c r="L161" s="23">
         <v>16</v>
       </c>
       <c r="M161" s="15">
         <v>41</v>
       </c>
       <c r="O161" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>48</v>
@@ -8122,7 +8189,7 @@
         <v>7</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>46</v>
@@ -8131,30 +8198,30 @@
         <v>38</v>
       </c>
       <c r="H162" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L162" s="23">
+        <v>20</v>
+      </c>
+      <c r="M162" s="15">
+        <v>38</v>
+      </c>
+      <c r="O162" t="s">
         <v>78</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L162" s="15">
-        <v>20</v>
-      </c>
-      <c r="M162" s="15">
-        <v>38</v>
-      </c>
-      <c r="O162" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>48</v>
@@ -8166,7 +8233,7 @@
         <v>8</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>46</v>
@@ -8175,7 +8242,7 @@
         <v>38</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>53</v>
@@ -8186,19 +8253,19 @@
       <c r="K163" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L163" s="15">
+      <c r="L163" s="23">
         <v>23</v>
       </c>
       <c r="M163" s="15">
         <v>45</v>
       </c>
       <c r="O163" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>48</v>
@@ -8210,7 +8277,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>46</v>
@@ -8219,30 +8286,30 @@
         <v>38</v>
       </c>
       <c r="H164" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L164" s="23">
+        <v>20.7</v>
+      </c>
+      <c r="M164" s="15">
+        <v>48</v>
+      </c>
+      <c r="O164" t="s">
         <v>78</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L164" s="15">
-        <v>20.7</v>
-      </c>
-      <c r="M164" s="15">
-        <v>48</v>
-      </c>
-      <c r="O164" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>48</v>
@@ -8254,7 +8321,7 @@
         <v>10</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>46</v>
@@ -8263,7 +8330,7 @@
         <v>38</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>53</v>
@@ -8274,19 +8341,19 @@
       <c r="K165" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L165" s="15">
+      <c r="L165" s="23">
         <v>20.399999999999999</v>
       </c>
       <c r="M165" s="15">
         <v>49</v>
       </c>
       <c r="O165" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>48</v>
@@ -8298,10 +8365,10 @@
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>38</v>
@@ -8316,24 +8383,24 @@
         <v>53</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L167" s="16">
+        <v>91</v>
+      </c>
+      <c r="L167" s="24">
         <v>7</v>
       </c>
       <c r="M167" s="16">
         <v>35</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O167" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>48</v>
@@ -8345,10 +8412,10 @@
         <v>2</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>38</v>
@@ -8363,24 +8430,24 @@
         <v>53</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L168" s="16">
+        <v>91</v>
+      </c>
+      <c r="L168" s="24">
         <v>12</v>
       </c>
       <c r="M168" s="16">
         <v>42</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O168" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>48</v>
@@ -8392,10 +8459,10 @@
         <v>3</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>38</v>
@@ -8410,24 +8477,24 @@
         <v>53</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L169" s="16">
+        <v>91</v>
+      </c>
+      <c r="L169" s="24">
         <v>13</v>
       </c>
       <c r="M169" s="16">
         <v>43</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O169" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>48</v>
@@ -8439,10 +8506,10 @@
         <v>4</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>38</v>
@@ -8457,24 +8524,24 @@
         <v>53</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L170" s="16">
+        <v>91</v>
+      </c>
+      <c r="L170" s="24">
         <v>12</v>
       </c>
       <c r="M170" s="16">
         <v>41</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O170" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>48</v>
@@ -8486,10 +8553,10 @@
         <v>5</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>38</v>
@@ -8504,24 +8571,24 @@
         <v>53</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L171" s="16">
+        <v>91</v>
+      </c>
+      <c r="L171" s="24">
         <v>14</v>
       </c>
       <c r="M171" s="16">
         <v>40</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O171" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>48</v>
@@ -8533,10 +8600,10 @@
         <v>6</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>38</v>
@@ -8551,24 +8618,24 @@
         <v>53</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L172" s="16">
+        <v>91</v>
+      </c>
+      <c r="L172" s="24">
         <v>14</v>
       </c>
       <c r="M172" s="16">
         <v>42</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O172" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>48</v>
@@ -8580,10 +8647,10 @@
         <v>7</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>38</v>
@@ -8598,24 +8665,24 @@
         <v>53</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L173" s="16">
+        <v>91</v>
+      </c>
+      <c r="L173" s="24">
         <v>14</v>
       </c>
       <c r="M173" s="16">
         <v>45</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O173" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>48</v>
@@ -8627,10 +8694,10 @@
         <v>8</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>38</v>
@@ -8645,24 +8712,24 @@
         <v>53</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L174" s="16">
+        <v>91</v>
+      </c>
+      <c r="L174" s="24">
         <v>14</v>
       </c>
       <c r="M174" s="16">
         <v>46</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O174" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>48</v>
@@ -8674,10 +8741,10 @@
         <v>9</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>38</v>
@@ -8692,24 +8759,24 @@
         <v>53</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L175" s="16">
+        <v>91</v>
+      </c>
+      <c r="L175" s="24">
         <v>15</v>
       </c>
       <c r="M175" s="16">
         <v>46</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O175" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>48</v>
@@ -8721,10 +8788,10 @@
         <v>10</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>38</v>
@@ -8739,24 +8806,24 @@
         <v>53</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L176" s="16">
+        <v>91</v>
+      </c>
+      <c r="L176" s="24">
         <v>14</v>
       </c>
       <c r="M176" s="16">
         <v>45</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O176" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>48</v>
@@ -8768,10 +8835,10 @@
         <v>1</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>38</v>
@@ -8786,24 +8853,24 @@
         <v>53</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L178" s="16">
+        <v>91</v>
+      </c>
+      <c r="L178" s="24">
         <v>7</v>
       </c>
       <c r="M178" s="16">
         <v>34</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O178" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>48</v>
@@ -8815,10 +8882,10 @@
         <v>2</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>38</v>
@@ -8833,24 +8900,24 @@
         <v>53</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L179" s="16">
+        <v>91</v>
+      </c>
+      <c r="L179" s="24">
         <v>11</v>
       </c>
       <c r="M179" s="16">
         <v>37</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O179" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>48</v>
@@ -8862,10 +8929,10 @@
         <v>3</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>38</v>
@@ -8880,24 +8947,24 @@
         <v>53</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L180" s="16">
+        <v>91</v>
+      </c>
+      <c r="L180" s="24">
         <v>12</v>
       </c>
       <c r="M180" s="16">
         <v>42</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O180" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>48</v>
@@ -8909,10 +8976,10 @@
         <v>4</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>38</v>
@@ -8927,24 +8994,24 @@
         <v>53</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L181" s="16">
+        <v>91</v>
+      </c>
+      <c r="L181" s="24">
         <v>13</v>
       </c>
       <c r="M181" s="16">
         <v>42</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O181" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>48</v>
@@ -8956,10 +9023,10 @@
         <v>5</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>38</v>
@@ -8974,24 +9041,24 @@
         <v>53</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L182" s="16">
+        <v>91</v>
+      </c>
+      <c r="L182" s="24">
         <v>14</v>
       </c>
       <c r="M182" s="16">
         <v>43</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O182" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>48</v>
@@ -9003,10 +9070,10 @@
         <v>6</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>38</v>
@@ -9021,24 +9088,24 @@
         <v>53</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L183" s="16">
+        <v>91</v>
+      </c>
+      <c r="L183" s="24">
         <v>14</v>
       </c>
       <c r="M183" s="16">
         <v>43</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O183" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>48</v>
@@ -9050,10 +9117,10 @@
         <v>7</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>38</v>
@@ -9068,24 +9135,24 @@
         <v>53</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L184" s="16">
+        <v>91</v>
+      </c>
+      <c r="L184" s="24">
         <v>14</v>
       </c>
       <c r="M184" s="16">
         <v>45</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O184" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>48</v>
@@ -9097,10 +9164,10 @@
         <v>8</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>38</v>
@@ -9115,24 +9182,24 @@
         <v>53</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L185" s="16">
+        <v>91</v>
+      </c>
+      <c r="L185" s="24">
         <v>14</v>
       </c>
       <c r="M185" s="16">
         <v>44</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O185" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>48</v>
@@ -9144,10 +9211,10 @@
         <v>9</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>38</v>
@@ -9162,24 +9229,24 @@
         <v>53</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L186" s="16">
+        <v>91</v>
+      </c>
+      <c r="L186" s="24">
         <v>14</v>
       </c>
       <c r="M186" s="16">
         <v>46</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O186" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>48</v>
@@ -9191,10 +9258,10 @@
         <v>10</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>38</v>
@@ -9209,24 +9276,24 @@
         <v>53</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L187" s="16">
+        <v>91</v>
+      </c>
+      <c r="L187" s="24">
         <v>14</v>
       </c>
       <c r="M187" s="16">
         <v>45</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O187" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>48</v>
@@ -9238,10 +9305,10 @@
         <v>1</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>38</v>
@@ -9256,24 +9323,24 @@
         <v>53</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L189" s="16">
+        <v>91</v>
+      </c>
+      <c r="L189" s="24">
         <v>8</v>
       </c>
       <c r="M189" s="16">
         <v>35</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O189" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>48</v>
@@ -9285,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>38</v>
@@ -9303,24 +9370,24 @@
         <v>53</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L190" s="16">
+        <v>91</v>
+      </c>
+      <c r="L190" s="24">
         <v>13</v>
       </c>
       <c r="M190" s="16">
         <v>40</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O190" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>48</v>
@@ -9332,10 +9399,10 @@
         <v>3</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>38</v>
@@ -9350,24 +9417,24 @@
         <v>53</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L191" s="16">
+        <v>91</v>
+      </c>
+      <c r="L191" s="24">
         <v>13</v>
       </c>
       <c r="M191" s="16">
         <v>41</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O191" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>48</v>
@@ -9379,10 +9446,10 @@
         <v>4</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>38</v>
@@ -9397,24 +9464,24 @@
         <v>53</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L192" s="16">
+        <v>91</v>
+      </c>
+      <c r="L192" s="24">
         <v>12</v>
       </c>
       <c r="M192" s="16">
         <v>40</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O192" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>48</v>
@@ -9426,10 +9493,10 @@
         <v>5</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>38</v>
@@ -9444,24 +9511,24 @@
         <v>53</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L193" s="16">
+        <v>91</v>
+      </c>
+      <c r="L193" s="24">
         <v>14</v>
       </c>
       <c r="M193" s="16">
         <v>44</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O193" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>48</v>
@@ -9473,10 +9540,10 @@
         <v>6</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>38</v>
@@ -9491,24 +9558,24 @@
         <v>53</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L194" s="16">
+        <v>91</v>
+      </c>
+      <c r="L194" s="24">
         <v>14</v>
       </c>
       <c r="M194" s="16">
         <v>45</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O194" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>48</v>
@@ -9520,10 +9587,10 @@
         <v>7</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>38</v>
@@ -9538,24 +9605,24 @@
         <v>53</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L195" s="16">
+        <v>91</v>
+      </c>
+      <c r="L195" s="24">
         <v>14</v>
       </c>
       <c r="M195" s="16">
         <v>45</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O195" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>48</v>
@@ -9567,10 +9634,10 @@
         <v>8</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>38</v>
@@ -9585,24 +9652,24 @@
         <v>53</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L196" s="16">
+        <v>91</v>
+      </c>
+      <c r="L196" s="24">
         <v>14</v>
       </c>
       <c r="M196" s="16">
         <v>45</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O196" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>48</v>
@@ -9614,10 +9681,10 @@
         <v>9</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>38</v>
@@ -9632,24 +9699,24 @@
         <v>53</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L197" s="16">
+        <v>91</v>
+      </c>
+      <c r="L197" s="24">
         <v>14</v>
       </c>
       <c r="M197" s="16">
         <v>44</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O197" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>48</v>
@@ -9661,10 +9728,10 @@
         <v>10</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>38</v>
@@ -9679,24 +9746,24 @@
         <v>53</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L198" s="16">
+        <v>91</v>
+      </c>
+      <c r="L198" s="24">
         <v>15</v>
       </c>
       <c r="M198" s="16">
         <v>45</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O198" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>48</v>
@@ -9708,10 +9775,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>38</v>
@@ -9726,24 +9793,24 @@
         <v>53</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L200" s="16">
+        <v>91</v>
+      </c>
+      <c r="L200" s="24">
         <v>7</v>
       </c>
       <c r="M200" s="16">
         <v>36</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O200" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>48</v>
@@ -9755,10 +9822,10 @@
         <v>2</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>38</v>
@@ -9773,24 +9840,24 @@
         <v>53</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L201" s="16">
+        <v>91</v>
+      </c>
+      <c r="L201" s="24">
         <v>12</v>
       </c>
       <c r="M201" s="16">
         <v>40</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O201" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>48</v>
@@ -9802,10 +9869,10 @@
         <v>3</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>38</v>
@@ -9820,24 +9887,24 @@
         <v>53</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L202" s="16">
+        <v>91</v>
+      </c>
+      <c r="L202" s="24">
         <v>13</v>
       </c>
       <c r="M202" s="16">
         <v>40</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O202" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>48</v>
@@ -9849,10 +9916,10 @@
         <v>4</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>38</v>
@@ -9867,24 +9934,24 @@
         <v>53</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L203" s="16">
+        <v>91</v>
+      </c>
+      <c r="L203" s="24">
         <v>13</v>
       </c>
       <c r="M203" s="16">
         <v>42</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O203" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>48</v>
@@ -9896,10 +9963,10 @@
         <v>5</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>38</v>
@@ -9914,24 +9981,24 @@
         <v>53</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L204" s="16">
+        <v>91</v>
+      </c>
+      <c r="L204" s="24">
         <v>13</v>
       </c>
       <c r="M204" s="16">
         <v>42</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O204" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>48</v>
@@ -9943,10 +10010,10 @@
         <v>6</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>38</v>
@@ -9961,24 +10028,24 @@
         <v>53</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L205" s="16">
+        <v>91</v>
+      </c>
+      <c r="L205" s="24">
         <v>15</v>
       </c>
       <c r="M205" s="16">
         <v>45</v>
       </c>
       <c r="N205" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O205" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>48</v>
@@ -9990,10 +10057,10 @@
         <v>7</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>38</v>
@@ -10008,24 +10075,24 @@
         <v>53</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L206" s="16">
+        <v>91</v>
+      </c>
+      <c r="L206" s="24">
         <v>14</v>
       </c>
       <c r="M206" s="16">
         <v>45</v>
       </c>
       <c r="N206" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O206" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>48</v>
@@ -10037,10 +10104,10 @@
         <v>8</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>38</v>
@@ -10055,24 +10122,24 @@
         <v>53</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L207" s="16">
+        <v>91</v>
+      </c>
+      <c r="L207" s="24">
         <v>14</v>
       </c>
       <c r="M207" s="16">
         <v>45</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O207" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>48</v>
@@ -10084,10 +10151,10 @@
         <v>9</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>38</v>
@@ -10102,24 +10169,24 @@
         <v>53</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L208" s="16">
+        <v>91</v>
+      </c>
+      <c r="L208" s="24">
         <v>14</v>
       </c>
       <c r="M208" s="16">
         <v>44</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O208" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>48</v>
@@ -10131,10 +10198,10 @@
         <v>10</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>38</v>
@@ -10149,24 +10216,24 @@
         <v>53</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L209" s="16">
+        <v>91</v>
+      </c>
+      <c r="L209" s="24">
         <v>14</v>
       </c>
       <c r="M209" s="16">
         <v>46</v>
       </c>
       <c r="N209" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O209" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>48</v>
@@ -10178,7 +10245,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>41</v>
@@ -10187,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I211" s="3" t="s">
         <v>53</v>
@@ -10198,163 +10265,320 @@
       <c r="K211" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L211" s="16" t="s">
-        <v>90</v>
+      <c r="L211">
+        <v>18</v>
       </c>
       <c r="M211">
         <v>55</v>
       </c>
       <c r="N211" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O211" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="B212" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="16">
+        <v>5</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L212">
+        <v>20</v>
+      </c>
+      <c r="M212">
+        <v>50</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O212" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" s="19">
+        <v>5</v>
+      </c>
+      <c r="E213" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F213" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H213" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I213" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J213" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K213" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L213" s="20">
+        <v>13</v>
+      </c>
+      <c r="M213" s="20">
+        <v>40</v>
+      </c>
+      <c r="N213" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O213" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A214" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C213" s="3" t="s">
+      <c r="B214" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D213" s="16">
+      <c r="D214" s="19">
         <v>5</v>
       </c>
-      <c r="E213" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F213" s="3" t="s">
+      <c r="E214" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F214" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G213" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K213" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L213" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M213">
-        <v>50</v>
-      </c>
-      <c r="N213" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O213" t="s">
-        <v>94</v>
+      <c r="G214" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I214" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J214" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L214" s="20">
+        <v>16</v>
+      </c>
+      <c r="M214" s="20">
+        <v>40</v>
+      </c>
+      <c r="N214" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O214" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A215" s="18" t="s">
+      <c r="A215" s="18"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="18"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="18"/>
+      <c r="K215" s="18"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="19"/>
+      <c r="N215" s="18"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B215" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C215" s="18" t="s">
+      <c r="B216" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D215" s="19">
-        <v>5</v>
-      </c>
-      <c r="E215" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F215" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G215" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H215" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I215" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J215" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K215" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L215" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M215" s="20">
-        <v>40</v>
-      </c>
-      <c r="N215" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O215" s="20" t="s">
-        <v>94</v>
+      <c r="D216" s="16">
+        <v>1</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L216" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="M216" s="16">
+        <v>24</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O216" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A217" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B217" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C217" s="18" t="s">
+      <c r="A217" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D217" s="19">
-        <v>5</v>
-      </c>
-      <c r="E217" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F217" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H217" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I217" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J217" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K217" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L217" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M217" s="20">
-        <v>40</v>
-      </c>
-      <c r="N217" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O217" s="20" t="s">
-        <v>94</v>
+      <c r="D217" s="16">
+        <v>1</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="24">
+        <v>2</v>
+      </c>
+      <c r="M217" s="16">
+        <v>22</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O217" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="16">
+        <v>1</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L218" s="24">
+        <v>2</v>
+      </c>
+      <c r="M218" s="16">
+        <v>22</v>
+      </c>
+      <c r="N218" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O218" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>48</v>
@@ -10363,19 +10587,19 @@
         <v>20</v>
       </c>
       <c r="D219" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>53</v>
@@ -10384,24 +10608,27 @@
         <v>53</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L219" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" s="24">
+        <v>2</v>
+      </c>
+      <c r="M219" s="16">
+        <v>24</v>
+      </c>
+      <c r="N219" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M219">
-        <v>55</v>
-      </c>
-      <c r="N219" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="O219" t="s">
-        <v>100</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N220" s="18"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>48</v>
@@ -10410,19 +10637,19 @@
         <v>20</v>
       </c>
       <c r="D221" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>53</v>
@@ -10431,45 +10658,92 @@
         <v>53</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L221" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M221">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="L221" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="M221" s="16">
+        <v>30</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O221" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" s="16">
+        <v>1</v>
+      </c>
+      <c r="E222" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="M222" s="16">
+        <v>30</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O222" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C223" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D223" s="16">
-        <v>5</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>53</v>
@@ -10478,66 +10752,630 @@
         <v>53</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L223" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M223">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="L223" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="M223" s="16">
+        <v>26</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O223" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="16">
+        <v>1</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F224" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C225" s="3" t="s">
+      <c r="G224" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L224" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="M224" s="16">
+        <v>30</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O224" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D225" s="16">
-        <v>5</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I225" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J225" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K225" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L225" s="16" t="s">
+      <c r="D226" s="16">
+        <v>1</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F226" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M225">
-        <v>40</v>
-      </c>
-      <c r="N225" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O225" t="s">
-        <v>100</v>
+      <c r="G226" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L226" s="24">
+        <v>3</v>
+      </c>
+      <c r="M226" s="16">
+        <v>30</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O226" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" s="16">
+        <v>1</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L227" s="24">
+        <v>3</v>
+      </c>
+      <c r="M227" s="16">
+        <v>33</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O227" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228" s="16">
+        <v>1</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L228" s="24">
+        <v>3</v>
+      </c>
+      <c r="M228" s="16">
+        <v>34</v>
+      </c>
+      <c r="N228" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O228" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229" s="16">
+        <v>1</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L229" s="24">
+        <v>3</v>
+      </c>
+      <c r="M229" s="16">
+        <v>32</v>
+      </c>
+      <c r="N229" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O229" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" s="16">
+        <v>1</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L231" s="24">
+        <v>3</v>
+      </c>
+      <c r="M231" s="16">
+        <v>34</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O231" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D232" s="16">
+        <v>1</v>
+      </c>
+      <c r="E232" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L232" s="24">
+        <v>3</v>
+      </c>
+      <c r="M232" s="16">
+        <v>33</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O232" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="16">
+        <v>1</v>
+      </c>
+      <c r="E233" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L233" s="24">
+        <v>3</v>
+      </c>
+      <c r="M233" s="16">
+        <v>33</v>
+      </c>
+      <c r="N233" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O233" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D234" s="16">
+        <v>1</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L234" s="24">
+        <v>3</v>
+      </c>
+      <c r="M234" s="16">
+        <v>32</v>
+      </c>
+      <c r="N234" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O234" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236" s="16">
+        <v>1</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L236" s="24">
+        <v>3</v>
+      </c>
+      <c r="M236" s="16">
+        <v>33</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O236" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" s="16">
+        <v>1</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L237" s="24">
+        <v>3</v>
+      </c>
+      <c r="M237" s="16">
+        <v>35</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O237" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" s="16">
+        <v>1</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L238" s="24">
+        <v>3</v>
+      </c>
+      <c r="M238" s="16">
+        <v>34</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O238" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239" s="16">
+        <v>1</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L239" s="24">
+        <v>3</v>
+      </c>
+      <c r="M239" s="16">
+        <v>34</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O239" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -10551,12 +11389,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="Seems like you selected an unlisted species, did you make a typo or do we need to expand the list?" xr:uid="{89DB2155-47B1-6C4F-866E-263885104C47}">
           <x14:formula1>
             <xm:f>'Data Validation'!$B$13:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B214 B216 B218:B1048576</xm:sqref>
+          <xm:sqref>B1:B212 B216:B221 B224:B235 B238:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="Seems like you selected an unlisted waveform, did you make a typo or do we need to expand the list?" promptTitle="Choose the Pulse Sequence " xr:uid="{686B3C70-6FC7-404A-8B44-E01A73EB6FA6}">
           <x14:formula1>
@@ -10568,13 +11406,19 @@
           <x14:formula1>
             <xm:f>'Data Validation'!$D$4:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F218:F1048576 F216 G56 G45 F2:F214</xm:sqref>
+          <xm:sqref>G56 G45 F525:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="Seems like you selected an unlisted waveform, did you make a typo or do we need to expand the list?" promptTitle="Select Waveform" xr:uid="{82DB6A83-068A-FD41-A020-75D156C5BCB7}">
           <x14:formula1>
             <xm:f>'Data Validation'!$B$4:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G44 G57:G214 G216 G218:G1048576 G46:G55</xm:sqref>
+          <xm:sqref>G1:G44 G46:G55 G57:G212 G216:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose the Pulse Sequence " xr:uid="{552B303A-08FD-D94D-8D57-723013FEE56B}">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$D$4:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F524</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10638,7 +11482,7 @@
         <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -10703,7 +11547,7 @@
   <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D9" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10755,12 +11599,27 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -10768,14 +11627,18 @@
         <v>49</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">

--- a/data/raw/dr_db.xlsx
+++ b/data/raw/dr_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/Dose_Response/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE862133-F911-1241-88C3-0D0015C85B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8733195D-1B2D-4741-BED8-3D6EEA21C362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" activeTab="2" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -598,13 +598,13 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1119,74 +1119,74 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -1421,7 +1421,7 @@
       <c r="P31" s="11"/>
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="9"/>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12991,13 +12991,18 @@
       <c r="L13" t="s">
         <v>6</v>
       </c>
+      <c r="M13">
+        <v>2.75</v>
+      </c>
       <c r="N13" s="14" t="s">
         <v>119</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="Q13" t="s">
         <v>115</v>
       </c>
@@ -13039,13 +13044,18 @@
       <c r="L14" t="s">
         <v>6</v>
       </c>
+      <c r="M14">
+        <v>5.46</v>
+      </c>
       <c r="N14" t="s">
         <v>119</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="Q14" t="s">
         <v>115</v>
       </c>
@@ -14014,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -14067,7 +14077,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -14120,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -14173,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -14226,7 +14236,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -14276,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -14326,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -14379,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -14432,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -14485,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -14538,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -14588,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>10</v>

--- a/data/raw/dr_db.xlsx
+++ b/data/raw/dr_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/Dose_Response/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8733195D-1B2D-4741-BED8-3D6EEA21C362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8C7AA-B306-4E4B-B027-1C7DB6A51716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" activeTab="2" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{09121203-F725-7841-956D-4A9953E65086}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -444,6 +444,21 @@
   </si>
   <si>
     <t>Was the lesions fully transmural? Only applies to in-vivo.</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:p:/r/sites/Clinical/Shared%20Documents/Pre-Clinical/Pharmaron_September9th_2024/Pharmaron%20Sep%209th,%202024,%20Procedure-Necropsy%20full%20report.pptx?d=w1c8b79cea8de4fbe8587107a742b6ac6&amp;csf=1&amp;web=1&amp;e=Eu0okl</t>
+  </si>
+  <si>
+    <t>Only included the Unipolar 3x12x3 lesions</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Pharmaron Sep 9th, 2024​</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56265552-5F8B-5640-AFF4-B9B334353120}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="156" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A7" zoomScale="156" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,6 +1395,15 @@
       <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -1614,6 +1638,7 @@
     <hyperlink ref="B25" r:id="rId10" xr:uid="{A120493C-69FC-904B-AF0E-A0955CB4ABE0}"/>
     <hyperlink ref="B26" r:id="rId11" xr:uid="{99DBAF5F-549B-D747-9ADF-C6B0134B02F3}"/>
     <hyperlink ref="B27" r:id="rId12" xr:uid="{1A1B2090-EC1A-9243-BCAE-3FB5DF3D13B6}"/>
+    <hyperlink ref="B28" r:id="rId13" xr:uid="{E1BA4B91-A478-7542-BD1A-1D803C00E551}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1623,9 +1648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5BF2D-E5D2-C74E-BDAA-5F5BFA9E62BE}">
   <dimension ref="A1:W523"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F245" sqref="F245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P242" sqref="P242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11465,52 +11490,134 @@
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M240" s="21"/>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M241" s="21"/>
-    </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M242" s="21"/>
-    </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="14">
+        <v>5</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L241" s="21">
+        <v>14</v>
+      </c>
+      <c r="M241" s="21">
+        <v>30</v>
+      </c>
+      <c r="O241" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" s="14">
+        <v>5</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L242" s="21">
+        <v>13</v>
+      </c>
+      <c r="M242" s="21">
+        <v>26</v>
+      </c>
+      <c r="O242" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M243" s="21"/>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M244" s="21"/>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M245" s="21"/>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M246" s="21"/>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M247" s="21"/>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M248" s="21"/>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M249" s="21"/>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M250" s="21"/>
     </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M251" s="21"/>
     </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M252" s="21"/>
     </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M253" s="21"/>
     </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M254" s="21"/>
     </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M255" s="21"/>
     </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M256" s="21"/>
     </row>
     <row r="257" spans="13:13" x14ac:dyDescent="0.2">
@@ -12366,7 +12473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBF4C51-6789-454C-901D-FF79E611B1BE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="99" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
